--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C961467-5757-4334-B1A3-072C45DD1A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915503C1-0DEC-494D-B90D-AD108D32E03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="870" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="8160" yWindow="1020" windowWidth="17250" windowHeight="14235" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Project name</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Swan Hills</t>
+  </si>
+  <si>
+    <t>Lesser Slave Lake</t>
+  </si>
+  <si>
+    <t>John D'Or Prairie</t>
+  </si>
+  <si>
+    <t>Anzac</t>
+  </si>
+  <si>
+    <t>Grande Cache</t>
   </si>
 </sst>
 </file>
@@ -410,13 +422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -469,6 +484,74 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>55.435000000000002</v>
+      </c>
+      <c r="D4">
+        <v>-115.081</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>58.793999999999997</v>
+      </c>
+      <c r="D5">
+        <v>-114.97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>56.34</v>
+      </c>
+      <c r="D6">
+        <v>-111.265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>54.442999999999998</v>
+      </c>
+      <c r="D7">
+        <v>-119.34099999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915503C1-0DEC-494D-B90D-AD108D32E03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618C59E-4B54-4072-8D7E-31D78DFE4C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="1020" windowWidth="17250" windowHeight="14235" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Project name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Grande Cache</t>
+  </si>
+  <si>
+    <t>Pigeon Lake</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,6 +555,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>53.085999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-114.187</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618C59E-4B54-4072-8D7E-31D78DFE4C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75186F62-B2A9-414D-8A70-DA2C28EE0C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1020" windowWidth="17250" windowHeight="14235" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-28920" yWindow="1110" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Project name</t>
   </si>
@@ -74,6 +77,24 @@
   </si>
   <si>
     <t>Pigeon Lake</t>
+  </si>
+  <si>
+    <t>Hinton</t>
+  </si>
+  <si>
+    <t>Falher</t>
+  </si>
+  <si>
+    <t>Delia</t>
+  </si>
+  <si>
+    <t>Chain Lakes</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>Bison Lake</t>
   </si>
 </sst>
 </file>
@@ -425,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,16 +476,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2">
-        <v>56.723999999999997</v>
+        <v>58.793999999999997</v>
       </c>
       <c r="D2">
-        <v>-119.496</v>
+        <v>-114.97</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -472,16 +493,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3">
-        <v>54.761000000000003</v>
+        <v>56.723999999999997</v>
       </c>
       <c r="D3">
-        <v>-115.65600000000001</v>
+        <v>-119.496</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -489,16 +510,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4">
-        <v>55.435000000000002</v>
+        <v>56.34</v>
       </c>
       <c r="D4">
-        <v>-115.081</v>
+        <v>-111.265</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -506,16 +527,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>58.793999999999997</v>
+        <v>55.73</v>
       </c>
       <c r="D5">
-        <v>-114.97</v>
+        <v>-117.17700000000001</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -523,16 +544,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6">
-        <v>56.34</v>
+        <v>55.435000000000002</v>
       </c>
       <c r="D6">
-        <v>-111.265</v>
+        <v>-115.081</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -540,16 +561,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
       <c r="C7">
-        <v>54.442999999999998</v>
+        <v>54.761000000000003</v>
       </c>
       <c r="D7">
-        <v>-119.34099999999999</v>
+        <v>-115.65600000000001</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -557,22 +578,129 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>54.442999999999998</v>
+      </c>
+      <c r="D8">
+        <v>-119.34099999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>53.341000000000001</v>
+      </c>
+      <c r="D9">
+        <v>-117.47199999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8">
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
         <v>53.085999999999999</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>-114.187</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>51.55</v>
+      </c>
+      <c r="D11">
+        <v>-112.22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <v>50.25</v>
+      </c>
+      <c r="D12">
+        <v>-114.176</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>49.865000000000002</v>
+      </c>
+      <c r="D13">
+        <v>-110.38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>57.381999999999998</v>
+      </c>
+      <c r="D14">
+        <v>-115.807</v>
+      </c>
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E13" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+      <sortCondition descending="1" ref="C1:C13"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75186F62-B2A9-414D-8A70-DA2C28EE0C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437DA7F-95C9-4750-95D5-48F157D6DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1110" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-25680" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Project name</t>
   </si>
@@ -95,16 +95,86 @@
   </si>
   <si>
     <t>Bison Lake</t>
+  </si>
+  <si>
+    <t>Sharp Hills Wind Farm</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>P1500 Renewable Energy Service WAGF</t>
+  </si>
+  <si>
+    <t>P2412 Fortis Buffalo Atlee Cluster 4 DER Wind</t>
+  </si>
+  <si>
+    <t>Buffalo Atlee Cluster WAGF</t>
+  </si>
+  <si>
+    <t>Lone Pine Wind</t>
+  </si>
+  <si>
+    <t>Wild Run Grizzly Bear Wind</t>
+  </si>
+  <si>
+    <t>P2211 ENGIE Buffalo Trail South MPC Wind</t>
+  </si>
+  <si>
+    <t>P2232 ENGIE Buffalo Trail North Wind</t>
+  </si>
+  <si>
+    <t>P2247 Buffalo Plains MPC Wind</t>
+  </si>
+  <si>
+    <t>TransAlta Garden Plain Wind</t>
+  </si>
+  <si>
+    <t>Paintearth Wind Power</t>
+  </si>
+  <si>
+    <t>Stirling WAGF Project</t>
+  </si>
+  <si>
+    <t>Halkirk 2 MPC Wind</t>
+  </si>
+  <si>
+    <t>Pattern Lanfine North Wind</t>
+  </si>
+  <si>
+    <t>P2137 Enerfin Winnifred MPC Wind</t>
+  </si>
+  <si>
+    <t>Bull Trail Wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,12 +196,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +789,278 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>248.4</v>
+      </c>
+      <c r="C15">
+        <v>51.75</v>
+      </c>
+      <c r="D15">
+        <v>-110.58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>49.484377000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-113.833523</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C17" s="3">
+        <v>50.727800999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-111.118579</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50.745507000000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-111.02433499999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>172.8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>51.804568000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-113.598105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>154</v>
+      </c>
+      <c r="C20" s="3">
+        <v>53.215192000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-111.09492899999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3">
+        <v>49.773040000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-110.419461</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>200</v>
+      </c>
+      <c r="C22" s="3">
+        <v>49.878022000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-110.52224699999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>466</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50.383988000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-112.774255</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>130</v>
+      </c>
+      <c r="C24" s="3">
+        <v>51.973483000000002</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-111.833432</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>150</v>
+      </c>
+      <c r="C25" s="3">
+        <v>52.182751000000003</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-112.06189000000001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>128</v>
+      </c>
+      <c r="C26" s="5">
+        <v>49.576659999999997</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-112.387398</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>148</v>
+      </c>
+      <c r="C27" s="3">
+        <v>52.26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-112.03</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>145</v>
+      </c>
+      <c r="C28" s="3">
+        <v>51.321227999999998</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-110.566647</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>90</v>
+      </c>
+      <c r="C29" s="3">
+        <v>49.935732000000002</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-111.088595</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>250</v>
+      </c>
+      <c r="C30" s="3">
+        <v>49.81</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-110.22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E13" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437DA7F-95C9-4750-95D5-48F157D6DC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AB7E3E-6954-4297-B283-3FD707A64864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25680" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Project name</t>
   </si>
@@ -146,6 +146,123 @@
   </si>
   <si>
     <t>Bull Trail Wind</t>
+  </si>
+  <si>
+    <t>P1567</t>
+  </si>
+  <si>
+    <t>P1500</t>
+  </si>
+  <si>
+    <t>P2412</t>
+  </si>
+  <si>
+    <t>P2211</t>
+  </si>
+  <si>
+    <t>P2232</t>
+  </si>
+  <si>
+    <t>P2247</t>
+  </si>
+  <si>
+    <t>P2137</t>
+  </si>
+  <si>
+    <t>P1853</t>
+  </si>
+  <si>
+    <t>P1824</t>
+  </si>
+  <si>
+    <t>P1250</t>
+  </si>
+  <si>
+    <t>P1909</t>
+  </si>
+  <si>
+    <t>P1704</t>
+  </si>
+  <si>
+    <t>P1719</t>
+  </si>
+  <si>
+    <t>P2441</t>
+  </si>
+  <si>
+    <t>P1898</t>
+  </si>
+  <si>
+    <t>P2342</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>P2237 RESC Forty Mile MPC Wind</t>
+  </si>
+  <si>
+    <t>P2237</t>
+  </si>
+  <si>
+    <t>Joss Wind Northern Lights WAGF</t>
+  </si>
+  <si>
+    <t>P1885</t>
+  </si>
+  <si>
+    <t>P2068 Four Rivers Wind</t>
+  </si>
+  <si>
+    <t>P2068</t>
+  </si>
+  <si>
+    <t>P2353 Fortis Castle Meridian DER Wind</t>
+  </si>
+  <si>
+    <t>P2353</t>
+  </si>
+  <si>
+    <t>P2254 RESC Hilda MPC Wind</t>
+  </si>
+  <si>
+    <t>P2254</t>
+  </si>
+  <si>
+    <t>Oyen MPC Wind</t>
+  </si>
+  <si>
+    <t>P2356</t>
+  </si>
+  <si>
+    <t>Old Elm Wind</t>
+  </si>
+  <si>
+    <t>P2391</t>
+  </si>
+  <si>
+    <t>P2398 Invenergy Schuler Wind</t>
+  </si>
+  <si>
+    <t>P2398</t>
+  </si>
+  <si>
+    <t>P2465 Enerfin Winnifred Wind Modification</t>
+  </si>
+  <si>
+    <t>P2465</t>
+  </si>
+  <si>
+    <t>Suncor Forty Mile Maleb WAGF</t>
+  </si>
+  <si>
+    <t>P1734</t>
+  </si>
+  <si>
+    <t>P2481 TransAlta Riplinger MPC Wind</t>
+  </si>
+  <si>
+    <t>P2481</t>
   </si>
 </sst>
 </file>
@@ -215,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,7 +340,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +672,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,504 +688,775 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6">
+        <v>53.215192000000002</v>
+      </c>
+      <c r="D2" s="6">
+        <v>-111.09492899999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6">
+        <v>49.484377000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-113.833523</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>248.4</v>
+      </c>
+      <c r="C4">
+        <v>51.75</v>
+      </c>
+      <c r="D4">
+        <v>-110.58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6">
+        <v>52.182751000000003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-112.06189000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6">
+        <v>128</v>
+      </c>
+      <c r="C6" s="7">
+        <v>49.576659999999997</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-112.387398</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6">
+        <v>172.8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>51.804568000000003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-113.598105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50.745507000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-111.02433499999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6">
+        <v>51.321227999999998</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-110.566647</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6">
+        <v>130</v>
+      </c>
+      <c r="C10" s="6">
+        <v>51.973483000000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-111.833432</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6">
+        <v>90</v>
+      </c>
+      <c r="C11" s="6">
+        <v>49.935732000000002</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-111.088595</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6">
+        <v>200</v>
+      </c>
+      <c r="C12" s="6">
+        <v>49.773040000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-110.419461</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6">
+        <v>200</v>
+      </c>
+      <c r="C13" s="6">
+        <v>49.878022000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-110.52224699999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <v>466</v>
+      </c>
+      <c r="C14" s="6">
+        <v>50.383988000000002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-112.774255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6">
+        <v>250</v>
+      </c>
+      <c r="C15" s="6">
+        <v>49.81</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-110.22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50.727800999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-111.118579</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3">
+        <v>52.26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-112.03</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
+      <c r="B18" s="3">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3">
         <v>58.793999999999997</v>
       </c>
-      <c r="D2">
+      <c r="D18" s="3">
         <v>-114.97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
+      <c r="B19" s="3">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3">
         <v>56.723999999999997</v>
       </c>
-      <c r="D3">
+      <c r="D19" s="3">
         <v>-119.496</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3">
         <v>56.34</v>
       </c>
-      <c r="D4">
+      <c r="D20" s="3">
         <v>-111.265</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3">
         <v>55.73</v>
       </c>
-      <c r="D5">
+      <c r="D21" s="3">
         <v>-117.17700000000001</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
+      <c r="B22" s="3">
+        <v>200</v>
+      </c>
+      <c r="C22" s="3">
         <v>55.435000000000002</v>
       </c>
-      <c r="D6">
+      <c r="D22" s="3">
         <v>-115.081</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7">
+      <c r="B23" s="3">
+        <v>200</v>
+      </c>
+      <c r="C23" s="3">
         <v>54.761000000000003</v>
       </c>
-      <c r="D7">
+      <c r="D23" s="3">
         <v>-115.65600000000001</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8">
+      <c r="B24" s="3">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3">
         <v>54.442999999999998</v>
       </c>
-      <c r="D8">
+      <c r="D24" s="3">
         <v>-119.34099999999999</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9">
+      <c r="B25" s="3">
+        <v>200</v>
+      </c>
+      <c r="C25" s="3">
         <v>53.341000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D25" s="3">
         <v>-117.47199999999999</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-      <c r="C10">
+      <c r="B26" s="3">
+        <v>200</v>
+      </c>
+      <c r="C26" s="3">
         <v>53.085999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D26" s="3">
         <v>-114.187</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11">
+      <c r="B27" s="3">
+        <v>200</v>
+      </c>
+      <c r="C27" s="3">
         <v>51.55</v>
       </c>
-      <c r="D11">
+      <c r="D27" s="3">
         <v>-112.22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12">
+      <c r="B28" s="3">
+        <v>200</v>
+      </c>
+      <c r="C28" s="3">
         <v>50.25</v>
       </c>
-      <c r="D12">
+      <c r="D28" s="3">
         <v>-114.176</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-      <c r="C13">
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="3">
         <v>49.865000000000002</v>
       </c>
-      <c r="D13">
+      <c r="D29" s="3">
         <v>-110.38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
+      <c r="B30" s="3">
+        <v>200</v>
+      </c>
+      <c r="C30" s="3">
         <v>57.381999999999998</v>
       </c>
-      <c r="D14">
+      <c r="D30" s="3">
         <v>-115.807</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>248.4</v>
-      </c>
-      <c r="C15">
-        <v>51.75</v>
-      </c>
-      <c r="D15">
-        <v>-110.58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3">
-        <v>49.484377000000002</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-113.833523</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C17" s="3">
-        <v>50.727800999999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-111.118579</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <v>48.3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>50.745507000000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-111.02433499999999</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3">
-        <v>172.8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>51.804568000000003</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-113.598105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3">
-        <v>53.215192000000002</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-111.09492899999999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3">
-        <v>200</v>
-      </c>
-      <c r="C21" s="3">
-        <v>49.773040000000002</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-110.419461</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
-        <v>200</v>
-      </c>
-      <c r="C22" s="3">
-        <v>49.878022000000001</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-110.52224699999999</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3">
-        <v>466</v>
-      </c>
-      <c r="C23" s="3">
-        <v>50.383988000000002</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-112.774255</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3">
-        <v>130</v>
-      </c>
-      <c r="C24" s="3">
-        <v>51.973483000000002</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-111.833432</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="3">
+        <v>266</v>
+      </c>
+      <c r="C31" s="3">
+        <v>49.11795</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-111.20680900000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3">
+        <v>400</v>
+      </c>
+      <c r="C32" s="3">
+        <v>54.758699999999997</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-115.5667</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3">
+        <v>450</v>
+      </c>
+      <c r="C33" s="3">
+        <v>49.505369000000002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-111.21256099999999</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>49.476188999999998</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-114.01845900000001</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50.553981</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-110.124185</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="3">
+        <v>250</v>
+      </c>
+      <c r="C36" s="3">
+        <v>51.454408000000001</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-110.459484</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3">
+        <v>300</v>
+      </c>
+      <c r="C37" s="3">
+        <v>49.31</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-112.93</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3">
         <v>150</v>
       </c>
-      <c r="C25" s="3">
-        <v>52.182751000000003</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-112.06189000000001</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3">
-        <v>128</v>
-      </c>
-      <c r="C26" s="5">
-        <v>49.576659999999997</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-112.387398</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3">
-        <v>148</v>
-      </c>
-      <c r="C27" s="3">
-        <v>52.26</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-112.03</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3">
-        <v>145</v>
-      </c>
-      <c r="C28" s="3">
-        <v>51.321227999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-110.566647</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3">
-        <v>90</v>
-      </c>
-      <c r="C29" s="3">
-        <v>49.935732000000002</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-111.088595</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3">
-        <v>250</v>
-      </c>
-      <c r="C30" s="3">
-        <v>49.81</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-110.22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
+      <c r="C38" s="3">
+        <v>50.389935000000001</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-110.222343</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="C39" s="3">
+        <v>49.941651999999998</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-111.05394</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="3">
+        <v>200</v>
+      </c>
+      <c r="C40" s="3">
+        <v>49.611555000000003</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-111.14373500000001</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="3">
+        <v>300</v>
+      </c>
+      <c r="C41" s="3">
+        <v>49.219557000000002</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-113.681152</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E13" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
-      <sortCondition descending="1" ref="C1:C13"/>
+  <autoFilter ref="A1:F1" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+      <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AB7E3E-6954-4297-B283-3FD707A64864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF680639-A37D-4A4A-BB06-E43B0D6964B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="155">
   <si>
     <t>Project name</t>
   </si>
@@ -263,6 +263,246 @@
   </si>
   <si>
     <t>P2481</t>
+  </si>
+  <si>
+    <t>Ardenville Wind Farm</t>
+  </si>
+  <si>
+    <t>Blackspring Ridge Wind</t>
+  </si>
+  <si>
+    <t>Blue Trail</t>
+  </si>
+  <si>
+    <t>Box Springs Wind Project</t>
+  </si>
+  <si>
+    <t>Bull Creek Wind Farm</t>
+  </si>
+  <si>
+    <t>Castle River Wind Farm</t>
+  </si>
+  <si>
+    <t>Castle Rock Ridge</t>
+  </si>
+  <si>
+    <t>Castle Rock Ridge Phase 2</t>
+  </si>
+  <si>
+    <t>Chin Chute</t>
+  </si>
+  <si>
+    <t>Cowley North</t>
+  </si>
+  <si>
+    <t>Cypress Wind Project Connection</t>
+  </si>
+  <si>
+    <t>Forty Mile Granlea WAGF</t>
+  </si>
+  <si>
+    <t>Ghost Pine Wind Farm</t>
+  </si>
+  <si>
+    <t>Halkirk Wind</t>
+  </si>
+  <si>
+    <t>Hand Hills MPC Wind</t>
+  </si>
+  <si>
+    <t>Jenner Wind</t>
+  </si>
+  <si>
+    <t>Joss Jenner - Phase 2</t>
+  </si>
+  <si>
+    <t>Kettles Hill</t>
+  </si>
+  <si>
+    <t>Lundbreck Wind Farm</t>
+  </si>
+  <si>
+    <t>Macleod Flats</t>
+  </si>
+  <si>
+    <t>Magrath</t>
+  </si>
+  <si>
+    <t>McBride Lake</t>
+  </si>
+  <si>
+    <t>Oldman River</t>
+  </si>
+  <si>
+    <t>Optimist Wind Energy</t>
+  </si>
+  <si>
+    <t>Rattlesnake Ridge Wind Power Project</t>
+  </si>
+  <si>
+    <t>Riverview Wind Power Plant</t>
+  </si>
+  <si>
+    <t>Sinnott Wind Farm</t>
+  </si>
+  <si>
+    <t>Soderglen</t>
+  </si>
+  <si>
+    <t>Summerview</t>
+  </si>
+  <si>
+    <t>Taber Wind Farm</t>
+  </si>
+  <si>
+    <t>Waterton Wind Turbines</t>
+  </si>
+  <si>
+    <t>Wheatland WAGF Project</t>
+  </si>
+  <si>
+    <t>Whitla</t>
+  </si>
+  <si>
+    <t>Windrise</t>
+  </si>
+  <si>
+    <t>Wintering Hills</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>ARD1</t>
+  </si>
+  <si>
+    <t>HAL1</t>
+  </si>
+  <si>
+    <t>BSR1</t>
+  </si>
+  <si>
+    <t>BTR1</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>CRR1</t>
+  </si>
+  <si>
+    <t>CRR2</t>
+  </si>
+  <si>
+    <t>FMG1</t>
+  </si>
+  <si>
+    <t>TAB1</t>
+  </si>
+  <si>
+    <t>NEP1</t>
+  </si>
+  <si>
+    <t>HHW1</t>
+  </si>
+  <si>
+    <t>JNR1</t>
+  </si>
+  <si>
+    <t>JNR2</t>
+  </si>
+  <si>
+    <t>KHW1</t>
+  </si>
+  <si>
+    <t>AKE1</t>
+  </si>
+  <si>
+    <t>SCR3</t>
+  </si>
+  <si>
+    <t>SCR2</t>
+  </si>
+  <si>
+    <t>OWF1</t>
+  </si>
+  <si>
+    <t>RTL1</t>
+  </si>
+  <si>
+    <t>RIV1</t>
+  </si>
+  <si>
+    <t>WHE1</t>
+  </si>
+  <si>
+    <t>GWW1</t>
+  </si>
+  <si>
+    <t>IEW</t>
+  </si>
+  <si>
+    <t>WHT</t>
+  </si>
+  <si>
+    <t>WRW1</t>
+  </si>
+  <si>
+    <t>SCR4</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Fort Macleod</t>
+  </si>
+  <si>
+    <t>Carmangay</t>
+  </si>
+  <si>
+    <t>Chauvin</t>
+  </si>
+  <si>
+    <t>Pincher Creek</t>
+  </si>
+  <si>
+    <t>Taber</t>
+  </si>
+  <si>
+    <t>Cowley</t>
+  </si>
+  <si>
+    <t>Waterton</t>
+  </si>
+  <si>
+    <t>Granlea</t>
+  </si>
+  <si>
+    <t>Kneehill County</t>
+  </si>
+  <si>
+    <t>Halkirk</t>
+  </si>
+  <si>
+    <t>Medicine Hat</t>
+  </si>
+  <si>
+    <t>Willow Creek</t>
+  </si>
+  <si>
+    <t>Drumheller</t>
+  </si>
+  <si>
+    <t>CRE3</t>
+  </si>
+  <si>
+    <t>Kehewin</t>
   </si>
 </sst>
 </file>
@@ -305,7 +545,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -328,24 +568,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,18 +915,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,772 +949,1542 @@
       <c r="F1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>298.8</v>
+      </c>
+      <c r="C2">
+        <v>50.137161783385302</v>
+      </c>
+      <c r="D2">
+        <v>-112.891188628714</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>29.2</v>
+      </c>
+      <c r="C3">
+        <v>52.508094209651397</v>
+      </c>
+      <c r="D3">
+        <v>-110.059863586278</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>19.5</v>
+      </c>
+      <c r="C4">
+        <v>49.562454971525902</v>
+      </c>
+      <c r="D4">
+        <v>-114.107698670337</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>51.211102298130001</v>
+      </c>
+      <c r="D5">
+        <v>-112.55848886694299</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>49.603440249622601</v>
+      </c>
+      <c r="D6">
+        <v>-113.48461427263599</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>49.554030815970499</v>
+      </c>
+      <c r="D7">
+        <v>-113.43191491544199</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>49.653698672387399</v>
+      </c>
+      <c r="D8">
+        <v>-113.467243068798</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>70.5</v>
+      </c>
+      <c r="C9">
+        <v>49.510937616014097</v>
+      </c>
+      <c r="D9">
+        <v>-113.505850598004</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>49.663338000000003</v>
+      </c>
+      <c r="D10">
+        <v>-111.12226</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>149.4</v>
+      </c>
+      <c r="C11">
+        <v>52.273717435844503</v>
+      </c>
+      <c r="D11">
+        <v>-112.063122867915</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C12" s="4">
+        <v>51.898608907543</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-113.365043427819</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>49.3873907054369</v>
+      </c>
+      <c r="D13">
+        <v>-112.954791433984</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>49.910587999999997</v>
+      </c>
+      <c r="D14">
+        <v>-111.059969</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>49.506691524818201</v>
+      </c>
+      <c r="D15">
+        <v>-114.04195248474601</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C16" s="2">
+        <v>49.558932334947698</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-113.968633870744</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>49.558906</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-113.982902</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>49.6070119988945</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-113.776935302673</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2">
+        <v>49.513428820274498</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-113.815902040133</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>49.5752853824551</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-113.852994991366</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2">
+        <v>49.532454200459199</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-113.97734759980401</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>49.684615474009803</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-112.324451486683</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>49.713173351148299</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-111.933125854544</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="C24" s="2">
+        <v>49.213597091238398</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-113.657400899954</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2">
+        <v>206.4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>49.470140000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-113.469329</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2">
+        <v>250</v>
+      </c>
+      <c r="C26" s="2">
+        <v>49.840966999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-110.356864</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>51.59</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-112.32</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="2">
+        <v>109.2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>50.777119999999996</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-111.045694</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C29" s="2">
+        <v>50.82</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-111.07</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="2">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2">
+        <v>51.237502999999997</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-112.426214</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2">
+        <v>352.8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>49.640292000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-111.29101300000001</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>50.101597812606002</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-110.72373948963499</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>49.583069999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-114.215968</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>49.686706000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-113.475207</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C35" s="2">
+        <v>49.528349499999997</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-113.98284200000001</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>49.537950011666403</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-113.980603448842</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>200</v>
+      </c>
+      <c r="C37" s="2">
+        <v>50.25</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-114.176</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2">
+        <v>200</v>
+      </c>
+      <c r="C38" s="2">
+        <v>51.55</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-112.22</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>200</v>
+      </c>
+      <c r="C39" s="2">
+        <v>53.085999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-114.187</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>200</v>
+      </c>
+      <c r="C40" s="2">
+        <v>53.341000000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-117.47199999999999</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>200</v>
+      </c>
+      <c r="C41" s="2">
+        <v>54.442999999999998</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-119.34099999999999</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
+        <v>200</v>
+      </c>
+      <c r="C42" s="4">
+        <v>54.761000000000003</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-115.65600000000001</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="4">
+        <v>200</v>
+      </c>
+      <c r="C43" s="4">
+        <v>55.435000000000002</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-115.081</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4">
+        <v>200</v>
+      </c>
+      <c r="C44" s="4">
+        <v>55.73</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-117.17700000000001</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4">
+        <v>200</v>
+      </c>
+      <c r="C45" s="4">
+        <v>56.34</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-111.265</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4">
+        <v>200</v>
+      </c>
+      <c r="C46" s="4">
+        <v>56.723999999999997</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-119.496</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="4">
+        <v>200</v>
+      </c>
+      <c r="C47" s="4">
+        <v>57.381999999999998</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-115.807</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="4">
+        <v>200</v>
+      </c>
+      <c r="C48" s="4">
+        <v>49.865000000000002</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-110.38</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4">
+        <v>200</v>
+      </c>
+      <c r="C49" s="4">
+        <v>58.793999999999997</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-114.97</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B50" s="4">
         <v>154</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C50" s="4">
         <v>53.215192000000002</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D50" s="4">
         <v>-111.09492899999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="B51" s="4">
         <v>47</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C51" s="4">
         <v>49.484377000000002</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D51" s="4">
         <v>-113.833523</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B52" s="4">
         <v>248.4</v>
       </c>
-      <c r="C4">
+      <c r="C52" s="4">
         <v>51.75</v>
       </c>
-      <c r="D4">
+      <c r="D52" s="4">
         <v>-110.58</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B53" s="4">
         <v>150</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C53" s="4">
         <v>52.182751000000003</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D53" s="4">
         <v>-112.06189000000001</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B54" s="4">
         <v>128</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C54" s="8">
         <v>49.576659999999997</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D54" s="8">
         <v>-112.387398</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="4">
+        <v>200</v>
+      </c>
+      <c r="C55" s="4">
+        <v>49.611555000000003</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-111.14373500000001</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B56" s="4">
         <v>172.8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C56" s="4">
         <v>51.804568000000003</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D56" s="4">
         <v>-113.598105</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B57" s="4">
         <v>48.3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C57" s="4">
         <v>50.745507000000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D57" s="4">
         <v>-111.02433499999999</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>400</v>
+      </c>
+      <c r="C58" s="4">
+        <v>54.758699999999997</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-115.5667</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B59" s="4">
         <v>145</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C59" s="4">
         <v>51.321227999999998</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D59" s="4">
         <v>-110.566647</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B60" s="4">
         <v>130</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C60" s="4">
         <v>51.973483000000002</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D60" s="4">
         <v>-111.833432</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4">
+        <v>450</v>
+      </c>
+      <c r="C61" s="4">
+        <v>49.505369000000002</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-111.21256099999999</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B62" s="4">
         <v>90</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C62" s="4">
         <v>49.935732000000002</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D62" s="4">
         <v>-111.088595</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B63" s="4">
         <v>200</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C63" s="4">
         <v>49.773040000000002</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D63" s="4">
         <v>-110.419461</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B64" s="4">
         <v>200</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C64" s="4">
         <v>49.878022000000001</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D64" s="4">
         <v>-110.52224699999999</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="4">
+        <v>266</v>
+      </c>
+      <c r="C65" s="4">
+        <v>49.11795</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-111.20680900000001</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B66" s="4">
         <v>466</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C66" s="4">
         <v>50.383988000000002</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D66" s="4">
         <v>-112.774255</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="4">
+        <v>100</v>
+      </c>
+      <c r="C67" s="4">
+        <v>50.553981</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-110.124185</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B68" s="4">
         <v>250</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C68" s="4">
         <v>49.81</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D68" s="4">
         <v>-110.22</v>
       </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="C69" s="4">
+        <v>49.476188999999998</v>
+      </c>
+      <c r="D69" s="4">
+        <v>-114.01845900000001</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="4">
+        <v>250</v>
+      </c>
+      <c r="C70" s="4">
+        <v>51.454408000000001</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-110.459484</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="4">
+        <v>300</v>
+      </c>
+      <c r="C71" s="4">
+        <v>49.31</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-112.93</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="4">
+        <v>150</v>
+      </c>
+      <c r="C72" s="4">
+        <v>50.389935000000001</v>
+      </c>
+      <c r="D72" s="4">
+        <v>-110.222343</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B73" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C73" s="4">
         <v>50.727800999999999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D73" s="4">
         <v>-111.118579</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B74" s="4">
         <v>148</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C74" s="4">
         <v>52.26</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D74" s="4">
         <v>-112.03</v>
       </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="C75" s="4">
+        <v>49.941651999999998</v>
+      </c>
+      <c r="D75" s="4">
+        <v>-111.05394</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4">
+        <v>300</v>
+      </c>
+      <c r="C76" s="4">
+        <v>49.219557000000002</v>
+      </c>
+      <c r="D76" s="4">
+        <v>-113.681152</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="6">
         <v>200</v>
       </c>
-      <c r="C18" s="3">
-        <v>58.793999999999997</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-114.97</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C77" s="6">
+        <v>54.066000000000003</v>
+      </c>
+      <c r="D77" s="6">
+        <v>-110.80200000000001</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3">
-        <v>200</v>
-      </c>
-      <c r="C19" s="3">
-        <v>56.723999999999997</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-119.496</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3">
-        <v>200</v>
-      </c>
-      <c r="C20" s="3">
-        <v>56.34</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-111.265</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3">
-        <v>200</v>
-      </c>
-      <c r="C21" s="3">
-        <v>55.73</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-117.17700000000001</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>200</v>
-      </c>
-      <c r="C22" s="3">
-        <v>55.435000000000002</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-115.081</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3">
-        <v>200</v>
-      </c>
-      <c r="C23" s="3">
-        <v>54.761000000000003</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-115.65600000000001</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3">
-        <v>200</v>
-      </c>
-      <c r="C24" s="3">
-        <v>54.442999999999998</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-119.34099999999999</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3">
-        <v>200</v>
-      </c>
-      <c r="C25" s="3">
-        <v>53.341000000000001</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-117.47199999999999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3">
-        <v>200</v>
-      </c>
-      <c r="C26" s="3">
-        <v>53.085999999999999</v>
-      </c>
-      <c r="D26" s="3">
-        <v>-114.187</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3">
-        <v>200</v>
-      </c>
-      <c r="C27" s="3">
-        <v>51.55</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-112.22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3">
-        <v>200</v>
-      </c>
-      <c r="C28" s="3">
-        <v>50.25</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-114.176</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="3">
-        <v>200</v>
-      </c>
-      <c r="C29" s="3">
-        <v>49.865000000000002</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-110.38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3">
-        <v>200</v>
-      </c>
-      <c r="C30" s="3">
-        <v>57.381999999999998</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-115.807</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3">
-        <v>266</v>
-      </c>
-      <c r="C31" s="3">
-        <v>49.11795</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-111.20680900000001</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3">
-        <v>400</v>
-      </c>
-      <c r="C32" s="3">
-        <v>54.758699999999997</v>
-      </c>
-      <c r="D32" s="3">
-        <v>-115.5667</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="3">
-        <v>450</v>
-      </c>
-      <c r="C33" s="3">
-        <v>49.505369000000002</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-111.21256099999999</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="3">
-        <v>22.4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>49.476188999999998</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-114.01845900000001</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3">
-        <v>100</v>
-      </c>
-      <c r="C35" s="3">
-        <v>50.553981</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-110.124185</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="3">
-        <v>250</v>
-      </c>
-      <c r="C36" s="3">
-        <v>51.454408000000001</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-110.459484</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="3">
-        <v>300</v>
-      </c>
-      <c r="C37" s="3">
-        <v>49.31</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-112.93</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="3">
-        <v>150</v>
-      </c>
-      <c r="C38" s="3">
-        <v>50.389935000000001</v>
-      </c>
-      <c r="D38" s="3">
-        <v>-110.222343</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="3">
-        <v>37.6</v>
-      </c>
-      <c r="C39" s="3">
-        <v>49.941651999999998</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-111.05394</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="3">
-        <v>200</v>
-      </c>
-      <c r="C40" s="3">
-        <v>49.611555000000003</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-111.14373500000001</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="3">
-        <v>300</v>
-      </c>
-      <c r="C41" s="3">
-        <v>49.219557000000002</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-113.681152</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-      <sortCondition ref="F1"/>
+  <autoFilter ref="A1:G76" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:G49">
+      <sortCondition ref="C1:C76"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF680639-A37D-4A4A-BB06-E43B0D6964B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB1C52-5160-4CD5-B8B9-5E635CE8FC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-28920" yWindow="690" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
   <si>
     <t>Project name</t>
   </si>
@@ -85,13 +85,7 @@
     <t>Falher</t>
   </si>
   <si>
-    <t>Delia</t>
-  </si>
-  <si>
     <t>Chain Lakes</t>
-  </si>
-  <si>
-    <t>Irvine</t>
   </si>
   <si>
     <t>Bison Lake</t>
@@ -915,13 +909,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,15 +941,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>298.8</v>
@@ -967,18 +961,18 @@
         <v>-112.891188628714</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>29.2</v>
@@ -990,18 +984,18 @@
         <v>-110.059863586278</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>19.5</v>
@@ -1013,18 +1007,18 @@
         <v>-114.107698670337</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>88</v>
@@ -1036,18 +1030,18 @@
         <v>-112.55848886694299</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -1059,18 +1053,18 @@
         <v>-113.48461427263599</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>69</v>
@@ -1082,18 +1076,18 @@
         <v>-113.43191491544199</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>66</v>
@@ -1105,18 +1099,18 @@
         <v>-113.467243068798</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>70.5</v>
@@ -1128,18 +1122,18 @@
         <v>-113.505850598004</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -1151,18 +1145,18 @@
         <v>-111.12226</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>149.4</v>
@@ -1174,18 +1168,18 @@
         <v>-112.063122867915</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
         <v>110</v>
       </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4">
         <v>81.599999999999994</v>
@@ -1197,18 +1191,18 @@
         <v>-113.365043427819</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -1220,18 +1214,18 @@
         <v>-112.954791433984</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -1243,18 +1237,18 @@
         <v>-111.059969</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>44</v>
@@ -1266,18 +1260,18 @@
         <v>-114.04195248474601</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>75.900000000000006</v>
@@ -1289,18 +1283,18 @@
         <v>-113.968633870744</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2">
         <v>29.4</v>
@@ -1312,18 +1306,18 @@
         <v>-113.982902</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2">
         <v>136.19999999999999</v>
@@ -1335,18 +1329,18 @@
         <v>-113.776935302673</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2">
         <v>63</v>
@@ -1358,18 +1352,18 @@
         <v>-113.815902040133</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2">
         <v>49.6</v>
@@ -1381,18 +1375,18 @@
         <v>-113.852994991366</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2">
         <v>105</v>
@@ -1404,18 +1398,18 @@
         <v>-113.97734759980401</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2">
         <v>30</v>
@@ -1427,18 +1421,18 @@
         <v>-112.324451486683</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2">
         <v>85.1</v>
@@ -1450,18 +1444,18 @@
         <v>-111.933125854544</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2">
         <v>3.78</v>
@@ -1473,15 +1467,15 @@
         <v>-113.657400899954</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2">
         <v>206.4</v>
@@ -1493,18 +1487,18 @@
         <v>-113.469329</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2">
         <v>250</v>
@@ -1516,15 +1510,15 @@
         <v>-110.356864</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2">
         <v>150.80000000000001</v>
@@ -1536,15 +1530,15 @@
         <v>-112.32</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2">
         <v>109.2</v>
@@ -1556,15 +1550,15 @@
         <v>-111.045694</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2">
         <v>71.400000000000006</v>
@@ -1576,15 +1570,15 @@
         <v>-111.07</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2">
         <v>120</v>
@@ -1596,15 +1590,15 @@
         <v>-112.426214</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2">
         <v>352.8</v>
@@ -1616,15 +1610,15 @@
         <v>-111.29101300000001</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
@@ -1636,12 +1630,12 @@
         <v>-110.72373948963499</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="2">
         <v>19.5</v>
@@ -1653,12 +1647,12 @@
         <v>-114.215968</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -1670,12 +1664,12 @@
         <v>-113.475207</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2">
         <v>0.9</v>
@@ -1687,12 +1681,12 @@
         <v>-113.98284200000001</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2">
         <v>6.5</v>
@@ -1704,12 +1698,12 @@
         <v>-113.980603448842</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2">
         <v>200</v>
@@ -1724,767 +1718,737 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2">
         <v>200</v>
       </c>
       <c r="C38" s="2">
-        <v>51.55</v>
+        <v>53.085999999999999</v>
       </c>
       <c r="D38" s="2">
-        <v>-112.22</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-114.187</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
         <v>200</v>
       </c>
       <c r="C39" s="2">
-        <v>53.085999999999999</v>
+        <v>53.341000000000001</v>
       </c>
       <c r="D39" s="2">
-        <v>-114.187</v>
+        <v>-117.47199999999999</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2">
         <v>200</v>
       </c>
       <c r="C40" s="2">
-        <v>53.341000000000001</v>
+        <v>54.442999999999998</v>
       </c>
       <c r="D40" s="2">
-        <v>-117.47199999999999</v>
+        <v>-119.34099999999999</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4">
         <v>200</v>
       </c>
-      <c r="C41" s="2">
-        <v>54.442999999999998</v>
-      </c>
-      <c r="D41" s="2">
-        <v>-119.34099999999999</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="4">
+        <v>54.761000000000003</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-115.65600000000001</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="4">
         <v>200</v>
       </c>
       <c r="C42" s="4">
-        <v>54.761000000000003</v>
+        <v>55.435000000000002</v>
       </c>
       <c r="D42" s="4">
-        <v>-115.65600000000001</v>
+        <v>-115.081</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B43" s="4">
         <v>200</v>
       </c>
       <c r="C43" s="4">
-        <v>55.435000000000002</v>
+        <v>55.73</v>
       </c>
       <c r="D43" s="4">
-        <v>-115.081</v>
+        <v>-117.17700000000001</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" s="4">
         <v>200</v>
       </c>
       <c r="C44" s="4">
-        <v>55.73</v>
+        <v>56.34</v>
       </c>
       <c r="D44" s="4">
-        <v>-117.17700000000001</v>
+        <v>-111.265</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B45" s="4">
         <v>200</v>
       </c>
       <c r="C45" s="4">
-        <v>56.34</v>
+        <v>56.723999999999997</v>
       </c>
       <c r="D45" s="4">
-        <v>-111.265</v>
+        <v>-119.496</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4">
         <v>200</v>
       </c>
       <c r="C46" s="4">
-        <v>56.723999999999997</v>
+        <v>57.381999999999998</v>
       </c>
       <c r="D46" s="4">
-        <v>-119.496</v>
+        <v>-115.807</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B47" s="4">
         <v>200</v>
       </c>
       <c r="C47" s="4">
-        <v>57.381999999999998</v>
+        <v>58.793999999999997</v>
       </c>
       <c r="D47" s="4">
-        <v>-115.807</v>
+        <v>-114.97</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>17</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B48" s="4">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4">
-        <v>49.865000000000002</v>
+        <v>53.215192000000002</v>
       </c>
       <c r="D48" s="4">
-        <v>-110.38</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>-111.09492899999999</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>9</v>
+      <c r="A49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B49" s="4">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4">
-        <v>58.793999999999997</v>
+        <v>49.484377000000002</v>
       </c>
       <c r="D49" s="4">
-        <v>-114.97</v>
+        <v>-113.833523</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4">
-        <v>154</v>
+        <v>248.4</v>
       </c>
       <c r="C50" s="4">
-        <v>53.215192000000002</v>
+        <v>51.75</v>
       </c>
       <c r="D50" s="4">
-        <v>-111.09492899999999</v>
+        <v>-110.58</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="4">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4">
+        <v>52.182751000000003</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-112.06189000000001</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="4">
-        <v>47</v>
-      </c>
-      <c r="C51" s="4">
-        <v>49.484377000000002</v>
-      </c>
-      <c r="D51" s="4">
-        <v>-113.833523</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>19</v>
+      <c r="A52" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B52" s="4">
-        <v>248.4</v>
-      </c>
-      <c r="C52" s="4">
-        <v>51.75</v>
-      </c>
-      <c r="D52" s="4">
-        <v>-110.58</v>
+        <v>128</v>
+      </c>
+      <c r="C52" s="8">
+        <v>49.576659999999997</v>
+      </c>
+      <c r="D52" s="8">
+        <v>-112.387398</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
+      <c r="A53" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B53" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C53" s="4">
-        <v>52.182751000000003</v>
+        <v>49.611555000000003</v>
       </c>
       <c r="D53" s="4">
-        <v>-112.06189000000001</v>
+        <v>-111.14373500000001</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B54" s="4">
-        <v>128</v>
-      </c>
-      <c r="C54" s="8">
-        <v>49.576659999999997</v>
-      </c>
-      <c r="D54" s="8">
-        <v>-112.387398</v>
+        <v>172.8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>51.804568000000003</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-113.598105</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>71</v>
+      <c r="A55" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>200</v>
+        <v>48.3</v>
       </c>
       <c r="C55" s="4">
-        <v>49.611555000000003</v>
+        <v>50.745507000000003</v>
       </c>
       <c r="D55" s="4">
-        <v>-111.14373500000001</v>
+        <v>-111.02433499999999</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4">
-        <v>172.8</v>
+        <v>400</v>
       </c>
       <c r="C56" s="4">
-        <v>51.804568000000003</v>
+        <v>54.758699999999997</v>
       </c>
       <c r="D56" s="4">
-        <v>-113.598105</v>
+        <v>-115.5667</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B57" s="4">
-        <v>48.3</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4">
-        <v>50.745507000000003</v>
+        <v>51.321227999999998</v>
       </c>
       <c r="D57" s="4">
-        <v>-111.02433499999999</v>
+        <v>-110.566647</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="4">
+        <v>130</v>
+      </c>
+      <c r="C58" s="4">
+        <v>51.973483000000002</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-111.833432</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="4">
-        <v>400</v>
-      </c>
-      <c r="C58" s="4">
-        <v>54.758699999999997</v>
-      </c>
-      <c r="D58" s="4">
-        <v>-115.5667</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="B59" s="4">
+        <v>450</v>
+      </c>
+      <c r="C59" s="4">
+        <v>49.505369000000002</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-111.21256099999999</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="4">
-        <v>145</v>
-      </c>
-      <c r="C59" s="4">
-        <v>51.321227999999998</v>
-      </c>
-      <c r="D59" s="4">
-        <v>-110.566647</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B60" s="4">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C60" s="4">
-        <v>51.973483000000002</v>
+        <v>49.935732000000002</v>
       </c>
       <c r="D60" s="4">
-        <v>-111.833432</v>
+        <v>-111.088595</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C61" s="4">
-        <v>49.505369000000002</v>
+        <v>49.773040000000002</v>
       </c>
       <c r="D61" s="4">
-        <v>-111.21256099999999</v>
+        <v>-110.419461</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
+      <c r="A62" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B62" s="4">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C62" s="4">
-        <v>49.935732000000002</v>
+        <v>49.878022000000001</v>
       </c>
       <c r="D62" s="4">
-        <v>-111.088595</v>
+        <v>-110.52224699999999</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C63" s="4">
-        <v>49.773040000000002</v>
+        <v>49.11795</v>
       </c>
       <c r="D63" s="4">
-        <v>-110.419461</v>
+        <v>-111.20680900000001</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="4">
-        <v>200</v>
+        <v>466</v>
       </c>
       <c r="C64" s="4">
-        <v>49.878022000000001</v>
+        <v>50.383988000000002</v>
       </c>
       <c r="D64" s="4">
-        <v>-110.52224699999999</v>
+        <v>-112.774255</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>53</v>
+      <c r="A65" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B65" s="4">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="C65" s="4">
-        <v>49.11795</v>
+        <v>50.553981</v>
       </c>
       <c r="D65" s="4">
-        <v>-111.20680900000001</v>
+        <v>-110.124185</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B66" s="4">
-        <v>466</v>
+        <v>250</v>
       </c>
       <c r="C66" s="4">
-        <v>50.383988000000002</v>
+        <v>49.81</v>
       </c>
       <c r="D66" s="4">
-        <v>-112.774255</v>
+        <v>-110.22</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="C67" s="4">
+        <v>49.476188999999998</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-114.01845900000001</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B67" s="4">
-        <v>100</v>
-      </c>
-      <c r="C67" s="4">
-        <v>50.553981</v>
-      </c>
-      <c r="D67" s="4">
-        <v>-110.124185</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B68" s="4">
         <v>250</v>
       </c>
       <c r="C68" s="4">
-        <v>49.81</v>
+        <v>51.454408000000001</v>
       </c>
       <c r="D68" s="4">
-        <v>-110.22</v>
+        <v>-110.459484</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>59</v>
+      <c r="A69" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B69" s="4">
-        <v>22.4</v>
+        <v>300</v>
       </c>
       <c r="C69" s="4">
-        <v>49.476188999999998</v>
+        <v>49.31</v>
       </c>
       <c r="D69" s="4">
-        <v>-114.01845900000001</v>
+        <v>-112.93</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B70" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4">
-        <v>51.454408000000001</v>
+        <v>50.389935000000001</v>
       </c>
       <c r="D70" s="4">
-        <v>-110.459484</v>
+        <v>-110.222343</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="B71" s="4">
-        <v>300</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C71" s="4">
-        <v>49.31</v>
+        <v>50.727800999999999</v>
       </c>
       <c r="D71" s="4">
-        <v>-112.93</v>
+        <v>-111.118579</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B72" s="4">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4">
-        <v>50.389935000000001</v>
+        <v>52.26</v>
       </c>
       <c r="D72" s="4">
-        <v>-110.222343</v>
+        <v>-112.03</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B73" s="4">
-        <v>4.5999999999999996</v>
+        <v>37.6</v>
       </c>
       <c r="C73" s="4">
-        <v>50.727800999999999</v>
+        <v>49.941651999999998</v>
       </c>
       <c r="D73" s="4">
-        <v>-111.118579</v>
+        <v>-111.05394</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="C74" s="4">
-        <v>52.26</v>
+        <v>49.219557000000002</v>
       </c>
       <c r="D74" s="4">
-        <v>-112.03</v>
+        <v>-113.681152</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="4">
-        <v>37.6</v>
-      </c>
-      <c r="C75" s="4">
-        <v>49.941651999999998</v>
-      </c>
-      <c r="D75" s="4">
-        <v>-111.05394</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="4">
-        <v>300</v>
-      </c>
-      <c r="C76" s="4">
-        <v>49.219557000000002</v>
-      </c>
-      <c r="D76" s="4">
-        <v>-113.681152</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="6">
         <v>200</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C75" s="6">
         <v>54.066000000000003</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D75" s="6">
         <v>-110.80200000000001</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G76" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:G49">
-      <sortCondition ref="C1:C76"/>
+  <autoFilter ref="A1:G74" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:G47">
+      <sortCondition ref="C1:C74"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB1C52-5160-4CD5-B8B9-5E635CE8FC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881AF95-168E-43D9-B2BA-885CC5AB72CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="690" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="32085" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,12 +97,6 @@
     <t>Queue</t>
   </si>
   <si>
-    <t>P1500 Renewable Energy Service WAGF</t>
-  </si>
-  <si>
-    <t>P2412 Fortis Buffalo Atlee Cluster 4 DER Wind</t>
-  </si>
-  <si>
     <t>Buffalo Atlee Cluster WAGF</t>
   </si>
   <si>
@@ -112,15 +106,6 @@
     <t>Wild Run Grizzly Bear Wind</t>
   </si>
   <si>
-    <t>P2211 ENGIE Buffalo Trail South MPC Wind</t>
-  </si>
-  <si>
-    <t>P2232 ENGIE Buffalo Trail North Wind</t>
-  </si>
-  <si>
-    <t>P2247 Buffalo Plains MPC Wind</t>
-  </si>
-  <si>
     <t>TransAlta Garden Plain Wind</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>Pattern Lanfine North Wind</t>
   </si>
   <si>
-    <t>P2137 Enerfin Winnifred MPC Wind</t>
-  </si>
-  <si>
     <t>Bull Trail Wind</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>P2237 RESC Forty Mile MPC Wind</t>
-  </si>
-  <si>
     <t>P2237</t>
   </si>
   <si>
@@ -205,21 +184,12 @@
     <t>P1885</t>
   </si>
   <si>
-    <t>P2068 Four Rivers Wind</t>
-  </si>
-  <si>
     <t>P2068</t>
   </si>
   <si>
-    <t>P2353 Fortis Castle Meridian DER Wind</t>
-  </si>
-  <si>
     <t>P2353</t>
   </si>
   <si>
-    <t>P2254 RESC Hilda MPC Wind</t>
-  </si>
-  <si>
     <t>P2254</t>
   </si>
   <si>
@@ -235,15 +205,9 @@
     <t>P2391</t>
   </si>
   <si>
-    <t>P2398 Invenergy Schuler Wind</t>
-  </si>
-  <si>
     <t>P2398</t>
   </si>
   <si>
-    <t>P2465 Enerfin Winnifred Wind Modification</t>
-  </si>
-  <si>
     <t>P2465</t>
   </si>
   <si>
@@ -253,9 +217,6 @@
     <t>P1734</t>
   </si>
   <si>
-    <t>P2481 TransAlta Riplinger MPC Wind</t>
-  </si>
-  <si>
     <t>P2481</t>
   </si>
   <si>
@@ -497,6 +458,45 @@
   </si>
   <si>
     <t>Kehewin</t>
+  </si>
+  <si>
+    <t>Renewable Energy Service WAGF</t>
+  </si>
+  <si>
+    <t>Four Rivers Wind</t>
+  </si>
+  <si>
+    <t>Buffalo Plains MPC Wind</t>
+  </si>
+  <si>
+    <t>Hilda MPC Wind</t>
+  </si>
+  <si>
+    <t>Forty Mile MPC Wind</t>
+  </si>
+  <si>
+    <t>Buffalo Trail North Wind</t>
+  </si>
+  <si>
+    <t>Buffalo Trail South MPC Wind</t>
+  </si>
+  <si>
+    <t>Winnifred MPC Wind</t>
+  </si>
+  <si>
+    <t>Castle Meridian DER Wind</t>
+  </si>
+  <si>
+    <t>Invenergy Schuler Wind</t>
+  </si>
+  <si>
+    <t>Buffalo Atlee Cluster 4 DER Wind</t>
+  </si>
+  <si>
+    <t>Winnifred Wind Modification</t>
+  </si>
+  <si>
+    <t>Riplinger MPC Wind</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -592,7 +592,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,10 +916,10 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,852 +945,822 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>298.8</v>
-      </c>
-      <c r="C2">
-        <v>50.137161783385302</v>
-      </c>
-      <c r="D2">
-        <v>-112.891188628714</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4">
+        <v>56.34</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-111.265</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>29.2</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>52.508094209651397</v>
+        <v>49.554030815970499</v>
       </c>
       <c r="D3">
-        <v>-110.059863586278</v>
+        <v>-113.43191491544199</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>19.5</v>
-      </c>
-      <c r="C4">
-        <v>49.562454971525902</v>
-      </c>
-      <c r="D4">
-        <v>-114.107698670337</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" t="s">
-        <v>143</v>
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>200</v>
+      </c>
+      <c r="C4" s="4">
+        <v>57.381999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-115.807</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>298.8</v>
       </c>
       <c r="C5">
-        <v>51.211102298130001</v>
+        <v>50.137161783385302</v>
       </c>
       <c r="D5">
-        <v>-112.55848886694299</v>
+        <v>-112.891188628714</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>49.603440249622601</v>
+        <v>49.653698672387399</v>
       </c>
       <c r="D6">
-        <v>-113.48461427263599</v>
+        <v>-113.467243068798</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
         <v>125</v>
       </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>49.554030815970499</v>
-      </c>
-      <c r="D7">
-        <v>-113.43191491544199</v>
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>50.101597812606002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-110.72373948963499</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>49.653698672387399</v>
-      </c>
-      <c r="D8">
-        <v>-113.467243068798</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>108</v>
+      <c r="A8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C8" s="4">
+        <v>50.727800999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-111.118579</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9">
-        <v>70.5</v>
-      </c>
-      <c r="C9">
-        <v>49.510937616014097</v>
-      </c>
-      <c r="D9">
-        <v>-113.505850598004</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>108</v>
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>50.745507000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-111.02433499999999</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="4">
+        <v>466</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50.383988000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-112.774255</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4">
         <v>200</v>
       </c>
-      <c r="C10">
-        <v>49.663338000000003</v>
-      </c>
-      <c r="D10">
-        <v>-111.12226</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11">
-        <v>149.4</v>
-      </c>
-      <c r="C11">
-        <v>52.273717435844503</v>
-      </c>
-      <c r="D11">
-        <v>-112.063122867915</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>108</v>
+      <c r="C11" s="4">
+        <v>49.878022000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-110.52224699999999</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>85</v>
+      <c r="A12" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B12" s="4">
-        <v>81.599999999999994</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4">
-        <v>51.898608907543</v>
+        <v>49.773040000000002</v>
       </c>
       <c r="D12" s="4">
-        <v>-113.365043427819</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>108</v>
+        <v>-110.419461</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="C13">
-        <v>49.3873907054369</v>
+        <v>52.508094209651397</v>
       </c>
       <c r="D13">
-        <v>-112.954791433984</v>
+        <v>-110.059863586278</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14">
-        <v>130</v>
-      </c>
-      <c r="C14">
-        <v>49.910587999999997</v>
-      </c>
-      <c r="D14">
-        <v>-111.059969</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>108</v>
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>250</v>
+      </c>
+      <c r="C14" s="4">
+        <v>49.81</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-110.22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>49.506691524818201</v>
-      </c>
-      <c r="D15">
-        <v>-114.04195248474601</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>108</v>
+      <c r="B15" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>49.476188999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-114.01845900000001</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B16">
-        <v>75.900000000000006</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
-        <v>49.558932334947698</v>
+        <v>49.506691524818201</v>
       </c>
       <c r="D16" s="2">
-        <v>-113.968633870744</v>
+        <v>-114.04195248474601</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2">
-        <v>29.4</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C17" s="2">
-        <v>49.558906</v>
+        <v>49.558932334947698</v>
       </c>
       <c r="D17" s="2">
-        <v>-113.982902</v>
+        <v>-113.968633870744</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2">
-        <v>136.19999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="C18" s="2">
-        <v>49.6070119988945</v>
+        <v>49.558906</v>
       </c>
       <c r="D18" s="2">
-        <v>-113.776935302673</v>
+        <v>-113.982902</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2">
-        <v>49.513428820274498</v>
+        <v>50.25</v>
       </c>
       <c r="D19" s="2">
-        <v>-113.815902040133</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" t="s">
-        <v>141</v>
+        <v>-114.176</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2">
-        <v>49.6</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>49.5752853824551</v>
+        <v>49.684615474009803</v>
       </c>
       <c r="D20" s="2">
-        <v>-113.852994991366</v>
+        <v>-112.324451486683</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2">
-        <v>49.532454200459199</v>
+        <v>56.723999999999997</v>
       </c>
       <c r="D21" s="2">
-        <v>-113.97734759980401</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" t="s">
-        <v>141</v>
+        <v>-119.496</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="C22" s="2">
-        <v>49.684615474009803</v>
+        <v>49.562454971525902</v>
       </c>
       <c r="D22" s="2">
-        <v>-112.324451486683</v>
+        <v>-114.107698670337</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2">
-        <v>85.1</v>
+        <v>250</v>
       </c>
       <c r="C23" s="2">
-        <v>49.713173351148299</v>
+        <v>49.840966999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>-111.933125854544</v>
+        <v>-110.356864</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
-        <v>3.78</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2">
-        <v>49.213597091238398</v>
+        <v>55.73</v>
       </c>
       <c r="D24" s="2">
-        <v>-113.657400899954</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" t="s">
-        <v>144</v>
+        <v>-117.17700000000001</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2">
-        <v>206.4</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2">
-        <v>49.470140000000001</v>
+        <v>49.663338000000003</v>
       </c>
       <c r="D25" s="2">
-        <v>-113.469329</v>
+        <v>-111.12226</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
+      <c r="A26" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="B26" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2">
-        <v>49.840966999999999</v>
+        <v>49.11795</v>
       </c>
       <c r="D26" s="2">
-        <v>-110.356864</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>108</v>
+        <v>-111.20680900000001</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
+      <c r="A27" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="B27" s="2">
-        <v>150.80000000000001</v>
+        <v>450</v>
       </c>
       <c r="C27" s="2">
-        <v>51.59</v>
+        <v>49.505369000000002</v>
       </c>
       <c r="D27" s="2">
-        <v>-112.32</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>108</v>
+        <v>-111.21256099999999</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2">
-        <v>109.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C28" s="2">
-        <v>50.777119999999996</v>
+        <v>51.898608907543</v>
       </c>
       <c r="D28" s="2">
-        <v>-111.045694</v>
+        <v>-113.365043427819</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>71.400000000000006</v>
+        <v>200</v>
       </c>
       <c r="C29" s="2">
-        <v>50.82</v>
+        <v>54.442999999999998</v>
       </c>
       <c r="D29" s="2">
-        <v>-111.07</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
+        <v>-119.34099999999999</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>104</v>
+      <c r="A30" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="2">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2">
-        <v>51.237502999999997</v>
+        <v>52.26</v>
       </c>
       <c r="D30" s="2">
-        <v>-112.426214</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>108</v>
+        <v>-112.03</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2">
-        <v>352.8</v>
+        <v>149.4</v>
       </c>
       <c r="C31" s="2">
-        <v>49.640292000000002</v>
+        <v>52.273717435844503</v>
       </c>
       <c r="D31" s="2">
-        <v>-111.29101300000001</v>
+        <v>-112.063122867915</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>51.59</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-112.32</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="2">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50.553981</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-110.124185</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
+        <v>200</v>
+      </c>
+      <c r="C34" s="2">
+        <v>53.341000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-117.47199999999999</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
-        <v>50.101597812606002</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-110.72373948963499</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="C33" s="2">
-        <v>49.583069999999999</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-114.215968</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>49.686706000000001</v>
-      </c>
-      <c r="D34" s="2">
-        <v>-113.475207</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>96</v>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="B35" s="2">
-        <v>0.9</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2">
-        <v>49.528349499999997</v>
+        <v>50.389935000000001</v>
       </c>
       <c r="D35" s="2">
-        <v>-113.98284200000001</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-110.222343</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2">
-        <v>6.5</v>
+        <v>109.2</v>
       </c>
       <c r="C36" s="2">
-        <v>49.537950011666403</v>
+        <v>50.777119999999996</v>
       </c>
       <c r="D36" s="2">
-        <v>-113.980603448842</v>
+        <v>-111.045694</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
         <v>200</v>
       </c>
       <c r="C37" s="2">
-        <v>50.25</v>
+        <v>58.793999999999997</v>
       </c>
       <c r="D37" s="2">
-        <v>-114.176</v>
+        <v>-114.97</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C38" s="2">
+        <v>50.82</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-111.07</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2">
+        <v>400</v>
+      </c>
+      <c r="C39" s="2">
+        <v>54.758699999999997</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-115.5667</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="9">
         <v>200</v>
       </c>
-      <c r="C38" s="2">
-        <v>53.085999999999999</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-114.187</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C40" s="9">
+        <v>54.066000000000003</v>
+      </c>
+      <c r="D40" s="9">
+        <v>-110.80200000000001</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="2">
-        <v>200</v>
-      </c>
-      <c r="C39" s="2">
-        <v>53.341000000000001</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-117.47199999999999</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2">
-        <v>200</v>
-      </c>
-      <c r="C40" s="2">
-        <v>54.442999999999998</v>
-      </c>
-      <c r="D40" s="2">
-        <v>-119.34099999999999</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B41" s="4">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4">
-        <v>54.761000000000003</v>
+        <v>49.513428820274498</v>
       </c>
       <c r="D41" s="4">
-        <v>-115.65600000000001</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-113.815902040133</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -1803,652 +1777,682 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>14</v>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B43" s="4">
+        <v>172.8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>51.804568000000003</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-113.598105</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>49.583069999999999</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-114.215968</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4">
+        <v>49.686706000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-113.475207</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="4">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4">
+        <v>49.3873907054369</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-112.954791433984</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="4">
+        <v>75</v>
+      </c>
+      <c r="C47" s="4">
+        <v>49.603440249622601</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-113.48461427263599</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4">
+        <v>300</v>
+      </c>
+      <c r="C48" s="4">
+        <v>49.31</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-112.93</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>49.5752853824551</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-113.852994991366</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C50" s="4">
+        <v>49.528349499999997</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-113.98284200000001</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4">
+        <v>250</v>
+      </c>
+      <c r="C51" s="4">
+        <v>51.454408000000001</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-110.459484</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="4">
+        <v>150</v>
+      </c>
+      <c r="C52" s="4">
+        <v>52.182751000000003</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-112.06189000000001</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="4">
+        <v>145</v>
+      </c>
+      <c r="C53" s="4">
+        <v>51.321227999999998</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-110.566647</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4">
         <v>200</v>
       </c>
-      <c r="C43" s="4">
-        <v>55.73</v>
-      </c>
-      <c r="D43" s="4">
-        <v>-117.17700000000001</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="C54" s="4">
+        <v>53.085999999999999</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-114.187</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55">
+        <v>130</v>
+      </c>
+      <c r="C55">
+        <v>49.910587999999997</v>
+      </c>
+      <c r="D55">
+        <v>-111.059969</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="4">
+        <v>47</v>
+      </c>
+      <c r="C56" s="4">
+        <v>49.484377000000002</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-113.833523</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="4">
+        <v>300</v>
+      </c>
+      <c r="C57" s="4">
+        <v>49.219557000000002</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-113.681152</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="4">
+        <v>105</v>
+      </c>
+      <c r="C58" s="4">
+        <v>49.532454200459199</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-113.97734759980401</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4">
+        <v>248.4</v>
+      </c>
+      <c r="C59" s="4">
+        <v>51.75</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-110.58</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C60" s="4">
+        <v>49.537950011666403</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-113.980603448842</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>70.5</v>
+      </c>
+      <c r="C61">
+        <v>49.510937616014097</v>
+      </c>
+      <c r="D61">
+        <v>-113.505850598004</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="4">
+        <v>128</v>
+      </c>
+      <c r="C62" s="8">
+        <v>49.576659999999997</v>
+      </c>
+      <c r="D62" s="8">
+        <v>-112.387398</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="4">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C63" s="4">
+        <v>49.6070119988945</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-113.776935302673</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="4">
         <v>200</v>
       </c>
-      <c r="C44" s="4">
-        <v>56.34</v>
-      </c>
-      <c r="D44" s="4">
-        <v>-111.265</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="C64" s="4">
+        <v>49.611555000000003</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-111.14373500000001</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4">
+        <v>200</v>
+      </c>
+      <c r="C65" s="4">
+        <v>54.761000000000003</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-115.65600000000001</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4">
-        <v>200</v>
-      </c>
-      <c r="C45" s="4">
-        <v>56.723999999999997</v>
-      </c>
-      <c r="D45" s="4">
-        <v>-119.496</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="4">
-        <v>200</v>
-      </c>
-      <c r="C46" s="4">
-        <v>57.381999999999998</v>
-      </c>
-      <c r="D46" s="4">
-        <v>-115.807</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="4">
-        <v>200</v>
-      </c>
-      <c r="C47" s="4">
-        <v>58.793999999999997</v>
-      </c>
-      <c r="D47" s="4">
-        <v>-114.97</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="4">
+        <v>85.1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>49.713173351148299</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-111.933125854544</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="4">
+        <v>130</v>
+      </c>
+      <c r="C67" s="4">
+        <v>51.973483000000002</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-111.833432</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3.78</v>
+      </c>
+      <c r="C68" s="4">
+        <v>49.213597091238398</v>
+      </c>
+      <c r="D68" s="4">
+        <v>-113.657400899954</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="4">
+        <v>120</v>
+      </c>
+      <c r="C69" s="4">
+        <v>51.237502999999997</v>
+      </c>
+      <c r="D69" s="4">
+        <v>-112.426214</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="4">
+        <v>352.8</v>
+      </c>
+      <c r="C70" s="4">
+        <v>49.640292000000002</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-111.29101300000001</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="4">
         <v>154</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C71" s="4">
         <v>53.215192000000002</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D71" s="4">
         <v>-111.09492899999999</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="4">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4">
-        <v>49.484377000000002</v>
-      </c>
-      <c r="D49" s="4">
-        <v>-113.833523</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="4">
-        <v>248.4</v>
-      </c>
-      <c r="C50" s="4">
-        <v>51.75</v>
-      </c>
-      <c r="D50" s="4">
-        <v>-110.58</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="4">
+        <v>206.4</v>
+      </c>
+      <c r="C72" s="4">
+        <v>49.470140000000001</v>
+      </c>
+      <c r="D72" s="4">
+        <v>-113.469329</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="4">
+        <v>90</v>
+      </c>
+      <c r="C73" s="4">
+        <v>49.935732000000002</v>
+      </c>
+      <c r="D73" s="4">
+        <v>-111.088595</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="4">
-        <v>150</v>
-      </c>
-      <c r="C51" s="4">
-        <v>52.182751000000003</v>
-      </c>
-      <c r="D51" s="4">
-        <v>-112.06189000000001</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="4">
-        <v>128</v>
-      </c>
-      <c r="C52" s="8">
-        <v>49.576659999999997</v>
-      </c>
-      <c r="D52" s="8">
-        <v>-112.387398</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="4">
-        <v>200</v>
-      </c>
-      <c r="C53" s="4">
-        <v>49.611555000000003</v>
-      </c>
-      <c r="D53" s="4">
-        <v>-111.14373500000001</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="4">
-        <v>172.8</v>
-      </c>
-      <c r="C54" s="4">
-        <v>51.804568000000003</v>
-      </c>
-      <c r="D54" s="4">
-        <v>-113.598105</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4">
-        <v>48.3</v>
-      </c>
-      <c r="C55" s="4">
-        <v>50.745507000000003</v>
-      </c>
-      <c r="D55" s="4">
-        <v>-111.02433499999999</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="4">
-        <v>400</v>
-      </c>
-      <c r="C56" s="4">
-        <v>54.758699999999997</v>
-      </c>
-      <c r="D56" s="4">
-        <v>-115.5667</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="4">
-        <v>145</v>
-      </c>
-      <c r="C57" s="4">
-        <v>51.321227999999998</v>
-      </c>
-      <c r="D57" s="4">
-        <v>-110.566647</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="4">
-        <v>130</v>
-      </c>
-      <c r="C58" s="4">
-        <v>51.973483000000002</v>
-      </c>
-      <c r="D58" s="4">
-        <v>-111.833432</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="4">
-        <v>450</v>
-      </c>
-      <c r="C59" s="4">
-        <v>49.505369000000002</v>
-      </c>
-      <c r="D59" s="4">
-        <v>-111.21256099999999</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="C74" s="4">
+        <v>49.941651999999998</v>
+      </c>
+      <c r="D74" s="4">
+        <v>-111.05394</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="4">
-        <v>90</v>
-      </c>
-      <c r="C60" s="4">
-        <v>49.935732000000002</v>
-      </c>
-      <c r="D60" s="4">
-        <v>-111.088595</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4">
-        <v>200</v>
-      </c>
-      <c r="C61" s="4">
-        <v>49.773040000000002</v>
-      </c>
-      <c r="D61" s="4">
-        <v>-110.419461</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4">
-        <v>200</v>
-      </c>
-      <c r="C62" s="4">
-        <v>49.878022000000001</v>
-      </c>
-      <c r="D62" s="4">
-        <v>-110.52224699999999</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="4">
-        <v>266</v>
-      </c>
-      <c r="C63" s="4">
-        <v>49.11795</v>
-      </c>
-      <c r="D63" s="4">
-        <v>-111.20680900000001</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="4">
-        <v>466</v>
-      </c>
-      <c r="C64" s="4">
-        <v>50.383988000000002</v>
-      </c>
-      <c r="D64" s="4">
-        <v>-112.774255</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="4">
-        <v>100</v>
-      </c>
-      <c r="C65" s="4">
-        <v>50.553981</v>
-      </c>
-      <c r="D65" s="4">
-        <v>-110.124185</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="4">
-        <v>250</v>
-      </c>
-      <c r="C66" s="4">
-        <v>49.81</v>
-      </c>
-      <c r="D66" s="4">
-        <v>-110.22</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="4">
-        <v>22.4</v>
-      </c>
-      <c r="C67" s="4">
-        <v>49.476188999999998</v>
-      </c>
-      <c r="D67" s="4">
-        <v>-114.01845900000001</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="4">
-        <v>250</v>
-      </c>
-      <c r="C68" s="4">
-        <v>51.454408000000001</v>
-      </c>
-      <c r="D68" s="4">
-        <v>-110.459484</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="4">
-        <v>300</v>
-      </c>
-      <c r="C69" s="4">
-        <v>49.31</v>
-      </c>
-      <c r="D69" s="4">
-        <v>-112.93</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="4">
-        <v>150</v>
-      </c>
-      <c r="C70" s="4">
-        <v>50.389935000000001</v>
-      </c>
-      <c r="D70" s="4">
-        <v>-110.222343</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C71" s="4">
-        <v>50.727800999999999</v>
-      </c>
-      <c r="D71" s="4">
-        <v>-111.118579</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="4">
-        <v>148</v>
-      </c>
-      <c r="C72" s="4">
-        <v>52.26</v>
-      </c>
-      <c r="D72" s="4">
-        <v>-112.03</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="4">
-        <v>37.6</v>
-      </c>
-      <c r="C73" s="4">
-        <v>49.941651999999998</v>
-      </c>
-      <c r="D73" s="4">
-        <v>-111.05394</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="4">
-        <v>300</v>
-      </c>
-      <c r="C74" s="4">
-        <v>49.219557000000002</v>
-      </c>
-      <c r="D74" s="4">
-        <v>-113.681152</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="6">
-        <v>200</v>
-      </c>
-      <c r="C75" s="6">
-        <v>54.066000000000003</v>
-      </c>
-      <c r="D75" s="6">
-        <v>-110.80200000000001</v>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>51.211102298130001</v>
+      </c>
+      <c r="D75">
+        <v>-112.55848886694299</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G74" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:G47">
-      <sortCondition ref="C1:C74"/>
+  <autoFilter ref="A1:G75" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G75">
+      <sortCondition ref="A1:A75"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881AF95-168E-43D9-B2BA-885CC5AB72CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0EF0CF-7394-4E2E-873A-81A80F3663EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32085" yWindow="2010" windowWidth="21600" windowHeight="11295" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>P1824</t>
   </si>
   <si>
-    <t>P1250</t>
-  </si>
-  <si>
     <t>P1909</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>Riplinger MPC Wind</t>
+  </si>
+  <si>
+    <t>GRZ1</t>
   </si>
 </sst>
 </file>
@@ -916,10 +916,10 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>69</v>
@@ -982,13 +982,13 @@
         <v>-113.43191491544199</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
         <v>95</v>
       </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>298.8</v>
@@ -1022,18 +1022,18 @@
         <v>-112.891188628714</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>66</v>
@@ -1045,18 +1045,18 @@
         <v>-113.467243068798</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -1068,12 +1068,12 @@
         <v>-110.72373948963499</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="4">
         <v>4.5999999999999996</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4">
         <v>466</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="4">
         <v>200</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="4">
         <v>200</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>29.2</v>
@@ -1185,13 +1185,13 @@
         <v>-110.059863586278</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1211,12 +1211,12 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="4">
         <v>22.4</v>
@@ -1231,12 +1231,12 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>44</v>
@@ -1248,18 +1248,18 @@
         <v>-114.04195248474601</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2">
         <v>75.900000000000006</v>
@@ -1271,18 +1271,18 @@
         <v>-113.968633870744</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>29.4</v>
@@ -1294,13 +1294,13 @@
         <v>-113.982902</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2">
         <v>30</v>
@@ -1334,13 +1334,13 @@
         <v>-112.324451486683</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2">
         <v>19.5</v>
@@ -1374,18 +1374,18 @@
         <v>-114.107698670337</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2">
         <v>250</v>
@@ -1397,10 +1397,10 @@
         <v>-110.356864</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2">
         <v>200</v>
@@ -1434,18 +1434,18 @@
         <v>-111.12226</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="2">
         <v>266</v>
@@ -1460,12 +1460,12 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2">
         <v>450</v>
@@ -1480,12 +1480,12 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2">
         <v>81.599999999999994</v>
@@ -1497,13 +1497,13 @@
         <v>-113.365043427819</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,12 +1540,12 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2">
         <v>149.4</v>
@@ -1557,18 +1557,18 @@
         <v>-112.063122867915</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2">
         <v>150.80000000000001</v>
@@ -1580,15 +1580,15 @@
         <v>-112.32</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2">
         <v>100</v>
@@ -1603,7 +1603,7 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="2">
         <v>150</v>
@@ -1640,12 +1640,12 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2">
         <v>109.2</v>
@@ -1657,10 +1657,10 @@
         <v>-111.045694</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2">
         <v>71.400000000000006</v>
@@ -1694,15 +1694,15 @@
         <v>-111.07</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
         <v>400</v>
@@ -1717,12 +1717,12 @@
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="9">
         <v>200</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="4">
         <v>63</v>
@@ -1751,13 +1751,13 @@
         <v>-113.815902040133</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4">
         <v>19.5</v>
@@ -1811,12 +1811,12 @@
         <v>-114.215968</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4">
         <v>3</v>
@@ -1828,12 +1828,12 @@
         <v>-113.475207</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4">
         <v>30</v>
@@ -1845,18 +1845,18 @@
         <v>-112.954791433984</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4">
         <v>75</v>
@@ -1868,18 +1868,18 @@
         <v>-113.48461427263599</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4">
         <v>300</v>
@@ -1894,12 +1894,12 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="4">
         <v>49.6</v>
@@ -1911,18 +1911,18 @@
         <v>-113.852994991366</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="4">
         <v>0.9</v>
@@ -1934,12 +1934,12 @@
         <v>-113.98284200000001</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4">
         <v>250</v>
@@ -1954,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55">
         <v>130</v>
@@ -2028,18 +2028,18 @@
         <v>-111.059969</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4">
         <v>47</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="4">
         <v>300</v>
@@ -2074,12 +2074,12 @@
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4">
         <v>105</v>
@@ -2091,13 +2091,13 @@
         <v>-113.97734759980401</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="4">
         <v>6.5</v>
@@ -2134,12 +2134,12 @@
         <v>-113.980603448842</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61">
         <v>70.5</v>
@@ -2151,13 +2151,13 @@
         <v>-113.505850598004</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,12 +2177,12 @@
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="4">
         <v>136.19999999999999</v>
@@ -2194,18 +2194,18 @@
         <v>-113.776935302673</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="4">
         <v>200</v>
@@ -2220,7 +2220,7 @@
         <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="4">
         <v>85.1</v>
@@ -2254,13 +2254,13 @@
         <v>-111.933125854544</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,12 +2280,12 @@
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="4">
         <v>3.78</v>
@@ -2297,15 +2297,15 @@
         <v>-113.657400899954</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="4">
         <v>120</v>
@@ -2317,15 +2317,15 @@
         <v>-112.426214</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" s="4">
         <v>352.8</v>
@@ -2337,10 +2337,10 @@
         <v>-111.29101300000001</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,15 +2357,15 @@
         <v>-111.09492899999999</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4">
         <v>206.4</v>
@@ -2377,18 +2377,18 @@
         <v>-113.469329</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="4">
         <v>90</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B74" s="4">
         <v>37.6</v>
@@ -2423,12 +2423,12 @@
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75">
         <v>88</v>
@@ -2440,13 +2440,13 @@
         <v>-112.55848886694299</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B9E5B-9A9B-4F24-8CFE-B49B4EFB8CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCC0D3-9D5C-43AC-8DB8-0BF70DF25AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="180">
   <si>
     <t>Project name</t>
   </si>
@@ -542,6 +542,42 @@
   </si>
   <si>
     <t>John D'Or</t>
+  </si>
+  <si>
+    <t>PotWind_004</t>
+  </si>
+  <si>
+    <t>PotWind_013</t>
+  </si>
+  <si>
+    <t>PotWind_002</t>
+  </si>
+  <si>
+    <t>PotWind_005</t>
+  </si>
+  <si>
+    <t>PotWind_012</t>
+  </si>
+  <si>
+    <t>PotWind_003</t>
+  </si>
+  <si>
+    <t>PotWind_006</t>
+  </si>
+  <si>
+    <t>PotWind_008</t>
+  </si>
+  <si>
+    <t>PotWind_001</t>
+  </si>
+  <si>
+    <t>PotWind_011</t>
+  </si>
+  <si>
+    <t>PotWind_007</t>
+  </si>
+  <si>
+    <t>PotWind_009</t>
   </si>
 </sst>
 </file>
@@ -956,15 +992,16 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -996,133 +1033,145 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1">
         <v>200</v>
       </c>
       <c r="C2" s="1">
-        <v>58.793999999999997</v>
+        <v>53.676718000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-114.97</v>
+        <v>-113.170091</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>200</v>
       </c>
       <c r="C3" s="1">
-        <v>57.381999999999998</v>
+        <v>56.723999999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-115.807</v>
+        <v>-119.496</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
       <c r="C4" s="1">
-        <v>56.723999999999997</v>
+        <v>55.435000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-119.496</v>
+        <v>-115.081</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>200</v>
       </c>
       <c r="C5" s="1">
-        <v>56.34</v>
+        <v>58.793999999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-111.265</v>
+        <v>-114.97</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>200</v>
       </c>
       <c r="C6" s="1">
-        <v>55.73</v>
+        <v>56.34</v>
       </c>
       <c r="D6" s="1">
-        <v>-117.17700000000001</v>
+        <v>-111.265</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
       <c r="C7" s="1">
-        <v>55.435000000000002</v>
+        <v>54.442999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-115.081</v>
+        <v>-119.34099999999999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1150,23 +1199,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>200</v>
       </c>
       <c r="C9" s="1">
-        <v>54.442999999999998</v>
+        <v>53.085999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-119.34099999999999</v>
+        <v>-114.187</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1186,7 +1237,9 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>134</v>
       </c>
@@ -1194,23 +1247,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>200</v>
       </c>
       <c r="C11" s="1">
-        <v>53.676718000000001</v>
+        <v>50.25</v>
       </c>
       <c r="D11" s="1">
-        <v>-113.170091</v>
+        <v>-114.176</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -1230,7 +1285,9 @@
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1264,23 +1321,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>200</v>
       </c>
       <c r="C14" s="1">
-        <v>53.085999999999999</v>
+        <v>55.73</v>
       </c>
       <c r="D14" s="1">
-        <v>-114.187</v>
+        <v>-117.17700000000001</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -1788,23 +1847,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
         <v>200</v>
       </c>
       <c r="C36" s="1">
-        <v>50.25</v>
+        <v>57.381999999999998</v>
       </c>
       <c r="D36" s="1">
-        <v>-114.176</v>
+        <v>-115.807</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="G36" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -2791,9 +2852,9 @@
       <c r="H76" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
-      <sortCondition descending="1" ref="C1"/>
+  <autoFilter ref="A1:H76" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+      <sortCondition ref="F1:F76"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCC0D3-9D5C-43AC-8DB8-0BF70DF25AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEB8D7-A8D4-4F74-9D9C-147D577D3A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-28920" yWindow="690" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="182">
   <si>
     <t>Project name</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>PotWind_009</t>
+  </si>
+  <si>
+    <t>Wild Rose 2 Wind Farm</t>
+  </si>
+  <si>
+    <t>P0693</t>
   </si>
 </sst>
 </file>
@@ -989,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="A77:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,265 +1039,289 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1">
-        <v>53.676718000000001</v>
+        <v>49.603440249622601</v>
       </c>
       <c r="D2" s="1">
-        <v>-113.170091</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>-113.48461427263599</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2003</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
-        <v>56.723999999999997</v>
+        <v>49.554030815970499</v>
       </c>
       <c r="D3" s="1">
-        <v>-119.496</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>-113.43191491544199</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2010</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
-        <v>200</v>
+        <v>298.8</v>
       </c>
       <c r="C4" s="1">
-        <v>55.435000000000002</v>
+        <v>50.137161783385302</v>
       </c>
       <c r="D4" s="1">
-        <v>-115.081</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>-112.891188628714</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2014</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
-        <v>58.793999999999997</v>
+        <v>49.653698672387399</v>
       </c>
       <c r="D5" s="1">
-        <v>-114.97</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>-113.467243068798</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2009</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
-        <v>200</v>
+        <v>29.2</v>
       </c>
       <c r="C6" s="1">
-        <v>56.34</v>
+        <v>52.508094209651397</v>
       </c>
       <c r="D6" s="1">
-        <v>-111.265</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>-110.059863586278</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2015</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
-        <v>54.442999999999998</v>
+        <v>49.506691524818201</v>
       </c>
       <c r="D7" s="1">
-        <v>-119.34099999999999</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>-114.04195248474601</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2001</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
+      <c r="A8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="1">
-        <v>400</v>
+        <v>19.5</v>
       </c>
       <c r="C8" s="1">
-        <v>54.758699999999997</v>
+        <v>49.562454971525902</v>
       </c>
       <c r="D8" s="1">
-        <v>-115.5667</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>-114.107698670337</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2001</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
-        <v>200</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>53.085999999999999</v>
+        <v>49.558932334947698</v>
       </c>
       <c r="D9" s="1">
-        <v>-114.187</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>-113.968633870744</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2012</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2">
-        <v>200</v>
-      </c>
-      <c r="C10" s="2">
-        <v>54.066000000000003</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-110.80200000000001</v>
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>49.558906</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-113.982902</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2019</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1">
-        <v>50.25</v>
+        <v>49.840966999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-114.176</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>-110.356864</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
       </c>
       <c r="C12" s="1">
-        <v>53.341000000000001</v>
+        <v>49.663338000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-117.47199999999999</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>-111.12226</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1321,1539 +1351,1537 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
-        <v>200</v>
+        <v>70.5</v>
       </c>
       <c r="C14" s="1">
-        <v>55.73</v>
+        <v>49.510937616014097</v>
       </c>
       <c r="D14" s="1">
-        <v>-117.17700000000001</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>-113.505850598004</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2006</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1">
-        <v>29.2</v>
+        <v>149.4</v>
       </c>
       <c r="C15" s="1">
-        <v>52.508094209651397</v>
+        <v>52.273717435844503</v>
       </c>
       <c r="D15" s="1">
-        <v>-110.059863586278</v>
+        <v>-112.063122867915</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H15" s="1">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1">
-        <v>149.4</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>52.273717435844503</v>
+        <v>51.566099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-112.063122867915</v>
+        <v>-112.253648</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="H16" s="1">
-        <v>2012</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
+      <c r="A17" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B17" s="1">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1">
-        <v>52.26</v>
+        <v>50.553981</v>
       </c>
       <c r="D17" s="1">
-        <v>-112.03</v>
+        <v>-110.124185</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
+      <c r="A18" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B18" s="1">
-        <v>150</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>52.182751000000003</v>
+        <v>49.6070119988945</v>
       </c>
       <c r="D18" s="1">
-        <v>-112.06189000000001</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>-113.776935302673</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2010</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
+      <c r="A19" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B19" s="1">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1">
-        <v>51.973483000000002</v>
+        <v>50.835769999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-111.833432</v>
+        <v>-111.10444099999999</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1">
-        <v>81.599999999999994</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C20" s="1">
-        <v>51.898608907543</v>
+        <v>50.82</v>
       </c>
       <c r="D20" s="1">
-        <v>-113.365043427819</v>
+        <v>-111.07</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="H20" s="1">
-        <v>2010</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B21" s="1">
-        <v>172.8</v>
+        <v>109.2</v>
       </c>
       <c r="C21" s="1">
-        <v>51.804568000000003</v>
+        <v>50.777119999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-113.598105</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>-111.045694</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
+      <c r="A22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B22" s="1">
-        <v>248.4</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
-        <v>51.75</v>
+        <v>49.513428820274498</v>
       </c>
       <c r="D22" s="1">
-        <v>-110.58</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>-113.815902040133</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2007</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
-        <v>150.80000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="C23" s="1">
-        <v>51.566099999999999</v>
+        <v>49.583069999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-112.253648</v>
+        <v>-114.215968</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H23" s="1">
-        <v>2022</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
+      <c r="A24" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B24" s="1">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
-        <v>51.454408000000001</v>
+        <v>49.686706000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-110.459484</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>-113.475207</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2004</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
+      <c r="A25" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="1">
-        <v>145</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C25" s="1">
-        <v>51.321227999999998</v>
+        <v>51.898608907543</v>
       </c>
       <c r="D25" s="1">
-        <v>-110.566647</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>-113.365043427819</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2010</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1">
-        <v>120</v>
+        <v>49.6</v>
       </c>
       <c r="C26" s="1">
-        <v>51.237502999999997</v>
+        <v>49.5752853824551</v>
       </c>
       <c r="D26" s="1">
-        <v>-112.426214</v>
+        <v>-113.852994991366</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="H26" s="1">
-        <v>2022</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>89</v>
+      <c r="A27" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B27" s="1">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <v>51.211102298130001</v>
+        <v>49.484377000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>-112.55848886694299</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>-113.833523</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2011</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>151</v>
+      <c r="A28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B28" s="1">
-        <v>71</v>
+        <v>248.4</v>
       </c>
       <c r="C28" s="1">
-        <v>50.835769999999997</v>
+        <v>51.75</v>
       </c>
       <c r="D28" s="1">
-        <v>-111.10444099999999</v>
+        <v>-110.58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2022</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>154</v>
+      <c r="A29" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="1">
-        <v>71.400000000000006</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1">
-        <v>50.82</v>
+        <v>52.182751000000003</v>
       </c>
       <c r="D29" s="1">
-        <v>-111.07</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>-112.06189000000001</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2022</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>150</v>
+      <c r="A30" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>109.2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>50.777119999999996</v>
-      </c>
-      <c r="D30" s="1">
-        <v>-111.045694</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
+      </c>
+      <c r="C30" s="6">
+        <v>49.576659999999997</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-112.387398</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2022</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
+      <c r="A31" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="1">
-        <v>48.3</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1">
-        <v>50.745507000000003</v>
+        <v>49.611555000000003</v>
       </c>
       <c r="D31" s="1">
-        <v>-111.02433499999999</v>
+        <v>-111.14373500000001</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1">
-        <v>4.5999999999999996</v>
+        <v>172.8</v>
       </c>
       <c r="C32" s="1">
-        <v>50.727800999999999</v>
+        <v>51.804568000000003</v>
       </c>
       <c r="D32" s="1">
-        <v>-111.118579</v>
+        <v>-113.598105</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>138</v>
+      <c r="A33" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B33" s="1">
-        <v>100</v>
+        <v>48.3</v>
       </c>
       <c r="C33" s="1">
-        <v>50.553981</v>
+        <v>50.745507000000003</v>
       </c>
       <c r="D33" s="1">
-        <v>-110.124185</v>
+        <v>-111.02433499999999</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2022</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>144</v>
+      <c r="A34" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B34" s="1">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C34" s="1">
-        <v>50.389935000000001</v>
+        <v>54.758699999999997</v>
       </c>
       <c r="D34" s="1">
-        <v>-110.222343</v>
+        <v>-115.5667</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1">
-        <v>50.383988000000002</v>
+        <v>51.321227999999998</v>
       </c>
       <c r="D35" s="1">
-        <v>-112.774255</v>
+        <v>-110.566647</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
+      <c r="A36" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B36" s="1">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1">
+        <v>51.973483000000002</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-111.833432</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="1">
+        <v>450</v>
+      </c>
+      <c r="C37" s="1">
+        <v>49.505369000000002</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-111.21256099999999</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="1">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1">
+        <v>49.935732000000002</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-111.088595</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="1">
         <v>200</v>
       </c>
-      <c r="C36" s="1">
-        <v>57.381999999999998</v>
-      </c>
-      <c r="D36" s="1">
-        <v>-115.807</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1">
-        <v>298.8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>50.137161783385302</v>
-      </c>
-      <c r="D37" s="1">
-        <v>-112.891188628714</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>50.101597812606002</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-110.72373948963499</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="1">
-        <v>37.6</v>
-      </c>
       <c r="C39" s="1">
-        <v>49.941651999999998</v>
+        <v>49.773040000000002</v>
       </c>
       <c r="D39" s="1">
-        <v>-111.05394</v>
+        <v>-110.419461</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>142</v>
+      <c r="A40" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B40" s="1">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C40" s="1">
-        <v>49.935732000000002</v>
+        <v>49.878022000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>-111.088595</v>
+        <v>-110.52224699999999</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>79</v>
+      <c r="A41" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B41" s="1">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="C41" s="1">
-        <v>49.910587999999997</v>
+        <v>49.11795</v>
       </c>
       <c r="D41" s="1">
-        <v>-111.059969</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>-111.20680900000001</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2021</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1">
-        <v>200</v>
+        <v>466</v>
       </c>
       <c r="C42" s="1">
-        <v>49.878022000000001</v>
+        <v>50.383988000000002</v>
       </c>
       <c r="D42" s="1">
-        <v>-110.52224699999999</v>
+        <v>-112.774255</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>67</v>
+      <c r="A43" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B43" s="1">
         <v>250</v>
       </c>
       <c r="C43" s="1">
-        <v>49.840966999999999</v>
+        <v>49.81</v>
       </c>
       <c r="D43" s="1">
-        <v>-110.356864</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>-110.22</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2022</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>26</v>
+      <c r="A44" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B44" s="1">
-        <v>250</v>
+        <v>22.4</v>
       </c>
       <c r="C44" s="1">
-        <v>49.81</v>
+        <v>49.476188999999998</v>
       </c>
       <c r="D44" s="1">
-        <v>-110.22</v>
+        <v>-114.01845900000001</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C45" s="1">
-        <v>49.773040000000002</v>
+        <v>51.454408000000001</v>
       </c>
       <c r="D45" s="1">
-        <v>-110.419461</v>
+        <v>-110.459484</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>84</v>
+      <c r="A46" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="1">
-        <v>85.1</v>
+        <v>300</v>
       </c>
       <c r="C46" s="1">
-        <v>49.713173351148299</v>
+        <v>49.31</v>
       </c>
       <c r="D46" s="1">
-        <v>-111.933125854544</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>-112.93</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2007</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
+      <c r="A47" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1">
-        <v>49.686706000000001</v>
+        <v>50.389935000000001</v>
       </c>
       <c r="D47" s="1">
-        <v>-113.475207</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>90</v>
+        <v>-110.222343</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2004</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>65</v>
+      <c r="A48" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B48" s="1">
-        <v>30</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C48" s="1">
-        <v>49.684615474009803</v>
+        <v>50.727800999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>-112.324451486683</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>-111.118579</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="1">
-        <v>2006</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>68</v>
+      <c r="A49" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B49" s="1">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="C49" s="1">
-        <v>49.663338000000003</v>
+        <v>52.26</v>
       </c>
       <c r="D49" s="1">
-        <v>-111.12226</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>-112.03</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2022</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
+      <c r="A50" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B50" s="1">
-        <v>66</v>
+        <v>37.6</v>
       </c>
       <c r="C50" s="1">
-        <v>49.653698672387399</v>
+        <v>49.941651999999998</v>
       </c>
       <c r="D50" s="1">
-        <v>-113.467243068798</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>-111.05394</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="1">
-        <v>2009</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>87</v>
+      <c r="A51" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B51" s="1">
-        <v>352.8</v>
+        <v>300</v>
       </c>
       <c r="C51" s="1">
-        <v>49.640292000000002</v>
+        <v>49.219557000000002</v>
       </c>
       <c r="D51" s="1">
-        <v>-111.29101300000001</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>-113.681152</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" s="1">
-        <v>2019</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>54</v>
+      <c r="A52" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B52" s="1">
         <v>200</v>
       </c>
       <c r="C52" s="1">
-        <v>49.611555000000003</v>
+        <v>53.676718000000001</v>
       </c>
       <c r="D52" s="1">
-        <v>-111.14373500000001</v>
+        <v>-113.170091</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
-        <v>136.19999999999999</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1">
-        <v>49.6070119988945</v>
+        <v>56.723999999999997</v>
       </c>
       <c r="D53" s="1">
-        <v>-113.776935302673</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>-119.496</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="1">
-        <v>2010</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C54" s="1">
-        <v>49.603440249622601</v>
+        <v>55.435000000000002</v>
       </c>
       <c r="D54" s="1">
-        <v>-113.48461427263599</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
+        <v>-115.081</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H54" s="1">
-        <v>2003</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
-        <v>19.5</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1">
-        <v>49.583069999999999</v>
+        <v>58.793999999999997</v>
       </c>
       <c r="D55" s="1">
-        <v>-114.215968</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>-114.97</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2001</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>23</v>
+      <c r="A56" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B56" s="1">
-        <v>128</v>
-      </c>
-      <c r="C56" s="6">
-        <v>49.576659999999997</v>
-      </c>
-      <c r="D56" s="6">
-        <v>-112.387398</v>
+        <v>200</v>
+      </c>
+      <c r="C56" s="1">
+        <v>56.34</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-111.265</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1">
-        <v>49.6</v>
+        <v>200</v>
       </c>
       <c r="C57" s="1">
-        <v>49.5752853824551</v>
+        <v>54.442999999999998</v>
       </c>
       <c r="D57" s="1">
-        <v>-113.852994991366</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>-119.34099999999999</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" s="1">
-        <v>2014</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1">
-        <v>19.5</v>
+        <v>200</v>
       </c>
       <c r="C58" s="1">
-        <v>49.562454971525902</v>
+        <v>53.085999999999999</v>
       </c>
       <c r="D58" s="1">
-        <v>-114.107698670337</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>-114.187</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2001</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="1">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="C59" s="1">
-        <v>49.558932334947698</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-113.968633870744</v>
+      <c r="A59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="2">
+        <v>200</v>
+      </c>
+      <c r="C59" s="2">
+        <v>54.066000000000003</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-110.80200000000001</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" s="1">
-        <v>2012</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B60" s="1">
-        <v>29.4</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1">
-        <v>49.558906</v>
+        <v>50.25</v>
       </c>
       <c r="D60" s="1">
-        <v>-113.982902</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>-114.176</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="1">
-        <v>2019</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="C61" s="1">
-        <v>49.554030815970499</v>
+        <v>53.341000000000001</v>
       </c>
       <c r="D61" s="1">
-        <v>-113.43191491544199</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>-117.47199999999999</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H61" s="1">
-        <v>2010</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B62" s="1">
-        <v>6.5</v>
+        <v>200</v>
       </c>
       <c r="C62" s="1">
-        <v>49.537950011666403</v>
+        <v>55.73</v>
       </c>
       <c r="D62" s="1">
-        <v>-113.980603448842</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>-117.17700000000001</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H62" s="1">
-        <v>2001</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B63" s="1">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C63" s="1">
-        <v>49.532454200459199</v>
+        <v>57.381999999999998</v>
       </c>
       <c r="D63" s="1">
-        <v>-113.97734759980401</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>-115.807</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H63" s="1">
-        <v>2019</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1">
-        <v>0.9</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1">
-        <v>49.528349499999997</v>
+        <v>49.532454200459199</v>
       </c>
       <c r="D64" s="1">
-        <v>-113.98284200000001</v>
+        <v>-113.97734759980401</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="G64" s="7" t="s">
         <v>123</v>
       </c>
       <c r="H64" s="1">
-        <v>2004</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1">
-        <v>49.513428820274498</v>
+        <v>49.910587999999997</v>
       </c>
       <c r="D65" s="1">
-        <v>-113.815902040133</v>
+        <v>-111.059969</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H65" s="1">
-        <v>2007</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B66" s="1">
-        <v>70.5</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1">
-        <v>49.510937616014097</v>
+        <v>49.3873907054369</v>
       </c>
       <c r="D66" s="1">
-        <v>-113.505850598004</v>
+        <v>-112.954791433984</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="H66" s="1">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1">
-        <v>49.506691524818201</v>
+        <v>49.684615474009803</v>
       </c>
       <c r="D67" s="1">
-        <v>-114.04195248474601</v>
+        <v>-112.324451486683</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1">
+        <v>88</v>
+      </c>
+      <c r="C68" s="1">
+        <v>51.211102298130001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-112.55848886694299</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>49.537950011666403</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-113.980603448842</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H69" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="1">
-        <v>450</v>
-      </c>
-      <c r="C68" s="1">
-        <v>49.505369000000002</v>
-      </c>
-      <c r="D68" s="1">
-        <v>-111.21256099999999</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="1">
-        <v>47</v>
-      </c>
-      <c r="C69" s="1">
-        <v>49.484377000000002</v>
-      </c>
-      <c r="D69" s="1">
-        <v>-113.833523</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="1"/>
-    </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>143</v>
+      <c r="A70" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B70" s="1">
-        <v>22.4</v>
+        <v>85.1</v>
       </c>
       <c r="C70" s="1">
-        <v>49.476188999999998</v>
+        <v>49.713173351148299</v>
       </c>
       <c r="D70" s="1">
-        <v>-114.01845900000001</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>17</v>
+        <v>-111.933125854544</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2007</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
-        <v>206.4</v>
+        <v>120</v>
       </c>
       <c r="C71" s="1">
-        <v>49.470140000000001</v>
+        <v>51.237502999999997</v>
       </c>
       <c r="D71" s="1">
-        <v>-113.469329</v>
+        <v>-112.426214</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H71" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
-        <v>30</v>
+        <v>352.8</v>
       </c>
       <c r="C72" s="1">
-        <v>49.3873907054369</v>
+        <v>49.640292000000002</v>
       </c>
       <c r="D72" s="1">
-        <v>-112.954791433984</v>
+        <v>-111.29101300000001</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H72" s="1">
-        <v>2004</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>50</v>
+      <c r="A73" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B73" s="1">
-        <v>300</v>
+        <v>206.4</v>
       </c>
       <c r="C73" s="1">
-        <v>49.31</v>
+        <v>49.470140000000001</v>
       </c>
       <c r="D73" s="1">
-        <v>-112.93</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>-113.469329</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2021</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>147</v>
+      <c r="A74" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B74" s="1">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1">
-        <v>49.219557000000002</v>
+        <v>50.101597812606002</v>
       </c>
       <c r="D74" s="1">
-        <v>-113.681152</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+        <v>-110.72373948963499</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2014</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1">
-        <v>3.78</v>
+        <v>0.9</v>
       </c>
       <c r="C75" s="1">
-        <v>49.213597091238398</v>
+        <v>49.528349499999997</v>
       </c>
       <c r="D75" s="1">
-        <v>-113.657400899954</v>
+        <v>-113.98284200000001</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="C76" s="1">
+        <v>49.213597091238398</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-113.657400899954</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H76" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="1">
-        <v>266</v>
-      </c>
-      <c r="C76" s="1">
-        <v>49.11795</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-111.20680900000001</v>
-      </c>
-      <c r="E76" s="1" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="2">
+        <v>192</v>
+      </c>
+      <c r="C77" s="2">
+        <v>49.79</v>
+      </c>
+      <c r="D77" s="2">
+        <v>-110.55</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H76" xr:uid="{180EB8E7-FD30-4B28-9EB3-AD21B5989928}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
       <sortCondition ref="F1:F76"/>
     </sortState>
   </autoFilter>

--- a/Potential_Sim.xlsx
+++ b/Potential_Sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\AuroraEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAEB8D7-A8D4-4F74-9D9C-147D577D3A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C51289-C963-42CC-AE1F-B65A45BC2F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="690" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E38A9E-6945-4687-B13F-09FBA8940B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>P2441</t>
   </si>
   <si>
-    <t>P1898</t>
-  </si>
-  <si>
     <t>P2342</t>
   </si>
   <si>
@@ -584,6 +581,9 @@
   </si>
   <si>
     <t>P0693</t>
+  </si>
+  <si>
+    <t>LAN1</t>
   </si>
 </sst>
 </file>
@@ -998,10 +998,10 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H77" sqref="A77:H77"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,18 +1028,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1">
         <v>75</v>
@@ -1051,13 +1051,13 @@
         <v>-113.48461427263599</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" s="1">
         <v>2003</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
         <v>69</v>
@@ -1077,13 +1077,13 @@
         <v>-113.43191491544199</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="1">
         <v>2010</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>298.8</v>
@@ -1103,13 +1103,13 @@
         <v>-112.891188628714</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1">
         <v>2014</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <v>66</v>
@@ -1129,13 +1129,13 @@
         <v>-113.467243068798</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="1">
         <v>2009</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
         <v>29.2</v>
@@ -1155,13 +1155,13 @@
         <v>-110.059863586278</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1">
         <v>2015</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1">
         <v>44</v>
@@ -1181,13 +1181,13 @@
         <v>-114.04195248474601</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1">
         <v>2001</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>19.5</v>
@@ -1207,13 +1207,13 @@
         <v>-114.107698670337</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1">
         <v>2001</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1">
         <v>75.900000000000006</v>
@@ -1233,13 +1233,13 @@
         <v>-113.968633870744</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1">
         <v>2012</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1">
         <v>29.4</v>
@@ -1259,13 +1259,13 @@
         <v>-113.982902</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="1">
         <v>2019</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1">
         <v>250</v>
@@ -1285,13 +1285,13 @@
         <v>-110.356864</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1">
         <v>2022</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
@@ -1311,13 +1311,13 @@
         <v>-111.12226</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="1">
         <v>2022</v>
@@ -1337,13 +1337,13 @@
         <v>-111.09492899999999</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="1">
         <v>2022</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1">
         <v>70.5</v>
@@ -1363,13 +1363,13 @@
         <v>-113.505850598004</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1">
         <v>2006</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1">
         <v>149.4</v>
@@ -1389,13 +1389,13 @@
         <v>-112.063122867915</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1">
         <v>2012</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1">
         <v>150.80000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>-112.253648</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="1">
         <v>2022</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
@@ -1441,13 +1441,13 @@
         <v>-110.124185</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" s="1">
         <v>2022</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1">
         <v>136.19999999999999</v>
@@ -1467,13 +1467,13 @@
         <v>-113.776935302673</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="1">
         <v>2010</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1">
         <v>71</v>
@@ -1493,13 +1493,13 @@
         <v>-111.10444099999999</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="1">
         <v>2022</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1">
         <v>71.400000000000006</v>
@@ -1519,13 +1519,13 @@
         <v>-111.07</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="1">
         <v>2022</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1">
         <v>109.2</v>
@@ -1545,13 +1545,13 @@
         <v>-111.045694</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1">
         <v>2022</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1">
         <v>63</v>
@@ -1571,13 +1571,13 @@
         <v>-113.815902040133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="1">
         <v>2007</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>19.5</v>
@@ -1597,13 +1597,13 @@
         <v>-114.215968</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H23" s="1">
         <v>2001</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1623,13 +1623,13 @@
         <v>-113.475207</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="1">
         <v>2004</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1">
         <v>81.599999999999994</v>
@@ -1649,13 +1649,13 @@
         <v>-113.365043427819</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="1">
         <v>2010</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1">
         <v>49.6</v>
@@ -1675,13 +1675,13 @@
         <v>-113.852994991366</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="1">
         <v>2014</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1">
         <v>47</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <v>200</v>
@@ -1792,7 +1792,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="1"/>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <v>400</v>
@@ -1858,7 +1858,7 @@
         <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="1"/>
@@ -1877,13 +1877,15 @@
         <v>-110.566647</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>2022</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -1909,7 +1911,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="1">
         <v>450</v>
@@ -1924,14 +1926,14 @@
         <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
@@ -1953,7 +1955,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1">
         <v>200</v>
@@ -1975,7 +1977,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1">
         <v>200</v>
@@ -1997,7 +1999,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1">
         <v>266</v>
@@ -2012,14 +2014,14 @@
         <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1">
         <v>466</v>
@@ -2056,14 +2058,14 @@
         <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1">
         <v>22.4</v>
@@ -2078,14 +2080,14 @@
         <v>17</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1">
         <v>250</v>
@@ -2100,14 +2102,14 @@
         <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>300</v>
@@ -2122,14 +2124,14 @@
         <v>17</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1">
         <v>150</v>
@@ -2144,14 +2146,14 @@
         <v>17</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="1">
         <v>4.5999999999999996</v>
@@ -2195,7 +2197,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1">
         <v>37.6</v>
@@ -2210,14 +2212,14 @@
         <v>17</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="1">
         <v>300</v>
@@ -2232,14 +2234,14 @@
         <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52" s="1">
         <v>200</v>
@@ -2254,10 +2256,10 @@
         <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H52" s="1"/>
     </row>
@@ -2278,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>5</v>
@@ -2302,7 +2304,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>7</v>
@@ -2326,10 +2328,10 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H55" s="1"/>
     </row>
@@ -2350,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>9</v>
@@ -2374,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>10</v>
@@ -2398,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>11</v>
@@ -2407,7 +2409,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="2">
         <v>200</v>
@@ -2422,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H59" s="1"/>
     </row>
@@ -2446,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>14</v>
@@ -2470,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>12</v>
@@ -2494,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>13</v>
@@ -2518,7 +2520,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>15</v>
@@ -2527,7 +2529,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
         <v>105</v>
@@ -2539,13 +2541,13 @@
         <v>-113.97734759980401</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H64" s="1">
         <v>2019</v>
@@ -2553,7 +2555,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1">
         <v>130</v>
@@ -2565,13 +2567,13 @@
         <v>-111.059969</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H65" s="1">
         <v>2021</v>
@@ -2579,7 +2581,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="1">
         <v>30</v>
@@ -2591,13 +2593,13 @@
         <v>-112.954791433984</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" s="1">
         <v>2004</v>
@@ -2605,7 +2607,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>30</v>
@@ -2617,13 +2619,13 @@
         <v>-112.324451486683</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" s="1">
         <v>2006</v>
@@ -2631,7 +2633,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1">
         <v>88</v>
@@ -2643,13 +2645,13 @@
         <v>-112.55848886694299</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H68" s="1">
         <v>2011</v>
@@ -2657,7 +2659,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1">
         <v>6.5</v>
@@ -2669,13 +2671,13 @@
         <v>-113.980603448842</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H69" s="1">
         <v>2001</v>
@@ -2683,7 +2685,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1">
         <v>85.1</v>
@@ -2695,13 +2697,13 @@
         <v>-111.933125854544</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H70" s="1">
         <v>2007</v>
@@ -2709,7 +2711,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1">
         <v>120</v>
@@ -2721,13 +2723,13 @@
         <v>-112.426214</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H71" s="1">
         <v>2022</v>
@@ -2735,7 +2737,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1">
         <v>352.8</v>
@@ -2747,13 +2749,13 @@
         <v>-111.29101300000001</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H72" s="1">
         <v>2019</v>
@@ -2761,7 +2763,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1">
         <v>206.4</v>
@@ -2773,13 +2775,13 @@
         <v>-113.469329</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H73" s="1">
         <v>2021</v>
@@ -2787,7 +2789,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -2799,11 +2801,11 @@
         <v>-110.72373948963499</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H74" s="1">
         <v>2014</v>
@@ -2811,7 +2813,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1">
         <v>0.9</v>
@@ -2823,11 +2825,11 @@
         <v>-113.98284200000001</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H75" s="1">
         <v>2004</v>
@@ -2835,7 +2837,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1">
         <v>3.78</v>
@@ -2847,11 +2849,11 @@
         <v>-113.657400899954</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H76" s="1">
         <v>2002</v>
@@ -2859,7 +2861,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B77" s="2">
         <v>192</v>
@@ -2874,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
